--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_Swaps.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_Swaps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="19005" yWindow="120" windowWidth="19170" windowHeight="11325" tabRatio="795" activeTab="6"/>
+    <workbookView xWindow="19005" yWindow="120" windowWidth="19170" windowHeight="11325" tabRatio="795"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="12" r:id="rId1"/>
@@ -15,9 +15,6 @@
     <sheet name="3M" sheetId="16" r:id="rId6"/>
     <sheet name="6M" sheetId="4" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BondBasisDayCounter">'General Settings'!$D$16</definedName>
     <definedName name="Calendar">'General Settings'!$D$18</definedName>
@@ -1136,22 +1133,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1442,8 +1423,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1460,7 +1441,7 @@
     <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1528,8 +1509,8 @@
         <v>58</v>
       </c>
       <c r="D8" s="38" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+        <f>qlSerializationPath(Trigger)</f>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="28"/>
     </row>
@@ -1790,13 +1771,13 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>HKD_YCSTDRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="45" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="47" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YCSTDRH_Swaps.xml</v>
       </c>
       <c r="N3" s="20"/>
       <c r="S3" s="108" t="s">
@@ -1832,7 +1813,7 @@
       </c>
       <c r="L4" s="66" t="str">
         <f>_xll.qlIborIndex(K4,FamilyName,J2,S4,Currency,T4,U4,V4,W4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H_Hibor3M#0003</v>
+        <v>HKD_YCSTDRH_QM3H_Hibor3M#0001</v>
       </c>
       <c r="M4" s="41" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -3719,13 +3700,13 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>HKD_YCRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="84">
+      <c r="L3" s="84" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L95),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>55</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YCRH_Swaps.xml</v>
       </c>
       <c r="N3" s="81"/>
     </row>
@@ -3746,7 +3727,7 @@
       </c>
       <c r="L4" s="88" t="str">
         <f>_xll.qlEonia(K4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS_Hibor#0003</v>
+        <v>HKD_YCRH_OIS_Hibor#0001</v>
       </c>
       <c r="M4" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -3805,7 +3786,7 @@
       </c>
       <c r="L6" s="95" t="str">
         <f>_xll.qlOISRateHelper(K6,2,C6,J6,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OISSW#0003</v>
+        <v>HKD_YCRH_OISSW#0001</v>
       </c>
       <c r="M6" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -3814,11 +3795,11 @@
       <c r="N6" s="81"/>
       <c r="P6" s="106">
         <f>_xll.qlRateHelperEarliestDate($L6)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q6" s="106">
         <f>_xll.qlRateHelperLatestDate($L6)</f>
-        <v>41586</v>
+        <v>41591</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -3856,7 +3837,7 @@
       </c>
       <c r="L7" s="95" t="str">
         <f>_xll.qlOISRateHelper(K7,2,C7,J7,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS2W#0003</v>
+        <v>HKD_YCRH_OIS2W#0001</v>
       </c>
       <c r="M7" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -3865,11 +3846,11 @@
       <c r="N7" s="81"/>
       <c r="P7" s="106">
         <f>_xll.qlRateHelperEarliestDate($L7)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q7" s="106">
         <f>_xll.qlRateHelperLatestDate($L7)</f>
-        <v>41593</v>
+        <v>41598</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -3907,7 +3888,7 @@
       </c>
       <c r="L8" s="95" t="str">
         <f>_xll.qlOISRateHelper(K8,2,C8,J8,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS3W#0002</v>
+        <v>HKD_YCRH_OIS3W#0001</v>
       </c>
       <c r="M8" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -3916,11 +3897,11 @@
       <c r="N8" s="81"/>
       <c r="P8" s="106">
         <f>_xll.qlRateHelperEarliestDate($L8)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q8" s="106">
         <f>_xll.qlRateHelperLatestDate($L8)</f>
-        <v>41600</v>
+        <v>41605</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -3958,7 +3939,7 @@
       </c>
       <c r="L9" s="95" t="str">
         <f>_xll.qlOISRateHelper(K9,2,C9,J9,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS1M#0003</v>
+        <v>HKD_YCRH_OIS1M#0001</v>
       </c>
       <c r="M9" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -3967,11 +3948,11 @@
       <c r="N9" s="81"/>
       <c r="P9" s="106">
         <f>_xll.qlRateHelperEarliestDate($L9)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q9" s="106">
         <f>_xll.qlRateHelperLatestDate($L9)</f>
-        <v>41610</v>
+        <v>41614</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -4009,7 +3990,7 @@
       </c>
       <c r="L10" s="95" t="str">
         <f>_xll.qlOISRateHelper(K10,2,C10,J10,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS2M#0003</v>
+        <v>HKD_YCRH_OIS2M#0001</v>
       </c>
       <c r="M10" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -4018,11 +3999,11 @@
       <c r="N10" s="81"/>
       <c r="P10" s="106">
         <f>_xll.qlRateHelperEarliestDate($L10)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q10" s="106">
         <f>_xll.qlRateHelperLatestDate($L10)</f>
-        <v>41641</v>
+        <v>41645</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -4060,7 +4041,7 @@
       </c>
       <c r="L11" s="95" t="str">
         <f>_xll.qlOISRateHelper(K11,2,C11,J11,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS3M#0003</v>
+        <v>HKD_YCRH_OIS3M#0001</v>
       </c>
       <c r="M11" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -4069,11 +4050,11 @@
       <c r="N11" s="81"/>
       <c r="P11" s="106">
         <f>_xll.qlRateHelperEarliestDate($L11)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q11" s="106">
         <f>_xll.qlRateHelperLatestDate($L11)</f>
-        <v>41673</v>
+        <v>41676</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -4111,7 +4092,7 @@
       </c>
       <c r="L12" s="95" t="str">
         <f>_xll.qlOISRateHelper(K12,2,C12,J12,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS4M#0003</v>
+        <v>HKD_YCRH_OIS4M#0001</v>
       </c>
       <c r="M12" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -4120,11 +4101,11 @@
       <c r="N12" s="81"/>
       <c r="P12" s="106">
         <f>_xll.qlRateHelperEarliestDate($L12)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q12" s="106">
         <f>_xll.qlRateHelperLatestDate($L12)</f>
-        <v>41701</v>
+        <v>41704</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -4162,7 +4143,7 @@
       </c>
       <c r="L13" s="95" t="str">
         <f>_xll.qlOISRateHelper(K13,2,C13,J13,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS5M#0003</v>
+        <v>HKD_YCRH_OIS5M#0001</v>
       </c>
       <c r="M13" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -4171,11 +4152,11 @@
       <c r="N13" s="81"/>
       <c r="P13" s="106">
         <f>_xll.qlRateHelperEarliestDate($L13)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q13" s="106">
         <f>_xll.qlRateHelperLatestDate($L13)</f>
-        <v>41730</v>
+        <v>41736</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -4213,7 +4194,7 @@
       </c>
       <c r="L14" s="95" t="str">
         <f>_xll.qlOISRateHelper(K14,2,C14,J14,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS6M#0003</v>
+        <v>HKD_YCRH_OIS6M#0000</v>
       </c>
       <c r="M14" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -4222,11 +4203,11 @@
       <c r="N14" s="81"/>
       <c r="P14" s="106">
         <f>_xll.qlRateHelperEarliestDate($L14)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q14" s="106">
         <f>_xll.qlRateHelperLatestDate($L14)</f>
-        <v>41761</v>
+        <v>41765</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -4264,7 +4245,7 @@
       </c>
       <c r="L15" s="95" t="str">
         <f>_xll.qlOISRateHelper(K15,2,C15,J15,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS7M#0003</v>
+        <v>HKD_YCRH_OIS7M#0001</v>
       </c>
       <c r="M15" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -4273,11 +4254,11 @@
       <c r="N15" s="81"/>
       <c r="P15" s="106">
         <f>_xll.qlRateHelperEarliestDate($L15)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q15" s="106">
         <f>_xll.qlRateHelperLatestDate($L15)</f>
-        <v>41792</v>
+        <v>41796</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -4315,7 +4296,7 @@
       </c>
       <c r="L16" s="95" t="str">
         <f>_xll.qlOISRateHelper(K16,2,C16,J16,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS8M#0003</v>
+        <v>HKD_YCRH_OIS8M#0000</v>
       </c>
       <c r="M16" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -4324,11 +4305,11 @@
       <c r="N16" s="81"/>
       <c r="P16" s="106">
         <f>_xll.qlRateHelperEarliestDate($L16)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q16" s="106">
         <f>_xll.qlRateHelperLatestDate($L16)</f>
-        <v>41821</v>
+        <v>41827</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -4366,7 +4347,7 @@
       </c>
       <c r="L17" s="95" t="str">
         <f>_xll.qlOISRateHelper(K17,2,C17,J17,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS9M#0003</v>
+        <v>HKD_YCRH_OIS9M#0001</v>
       </c>
       <c r="M17" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -4375,11 +4356,11 @@
       <c r="N17" s="81"/>
       <c r="P17" s="106">
         <f>_xll.qlRateHelperEarliestDate($L17)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q17" s="106">
         <f>_xll.qlRateHelperLatestDate($L17)</f>
-        <v>41852</v>
+        <v>41857</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -4417,7 +4398,7 @@
       </c>
       <c r="L18" s="95" t="str">
         <f>_xll.qlOISRateHelper(K18,2,C18,J18,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS10M#0002</v>
+        <v>HKD_YCRH_OIS10M#0000</v>
       </c>
       <c r="M18" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -4426,11 +4407,11 @@
       <c r="N18" s="81"/>
       <c r="P18" s="106">
         <f>_xll.qlRateHelperEarliestDate($L18)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q18" s="106">
         <f>_xll.qlRateHelperLatestDate($L18)</f>
-        <v>41883</v>
+        <v>41890</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -4468,7 +4449,7 @@
       </c>
       <c r="L19" s="95" t="str">
         <f>_xll.qlOISRateHelper(K19,2,C19,J19,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS11M#0003</v>
+        <v>HKD_YCRH_OIS11M#0000</v>
       </c>
       <c r="M19" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -4477,11 +4458,11 @@
       <c r="N19" s="81"/>
       <c r="P19" s="106">
         <f>_xll.qlRateHelperEarliestDate($L19)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q19" s="106">
         <f>_xll.qlRateHelperLatestDate($L19)</f>
-        <v>41913</v>
+        <v>41918</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -4519,7 +4500,7 @@
       </c>
       <c r="L20" s="95" t="str">
         <f>_xll.qlOISRateHelper(K20,2,C20,J20,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS1Y#0003</v>
+        <v>HKD_YCRH_OIS1Y#0000</v>
       </c>
       <c r="M20" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -4528,11 +4509,11 @@
       <c r="N20" s="81"/>
       <c r="P20" s="106">
         <f>_xll.qlRateHelperEarliestDate($L20)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q20" s="106">
         <f>_xll.qlRateHelperLatestDate($L20)</f>
-        <v>41946</v>
+        <v>41949</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -4570,7 +4551,7 @@
       </c>
       <c r="L21" s="95" t="str">
         <f>_xll.qlOISRateHelper(K21,2,C21,J21,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS13M#0003</v>
+        <v>HKD_YCRH_OIS13M#0001</v>
       </c>
       <c r="M21" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -4579,11 +4560,11 @@
       <c r="N21" s="81"/>
       <c r="P21" s="106">
         <f>_xll.qlRateHelperEarliestDate($L21)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q21" s="106">
         <f>_xll.qlRateHelperLatestDate($L21)</f>
-        <v>41974</v>
+        <v>41981</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -4621,7 +4602,7 @@
       </c>
       <c r="L22" s="95" t="str">
         <f>_xll.qlOISRateHelper(K22,2,C22,J22,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS14M#0002</v>
+        <v>HKD_YCRH_OIS14M#0000</v>
       </c>
       <c r="M22" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -4630,11 +4611,11 @@
       <c r="N22" s="81"/>
       <c r="P22" s="106">
         <f>_xll.qlRateHelperEarliestDate($L22)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q22" s="106">
         <f>_xll.qlRateHelperLatestDate($L22)</f>
-        <v>42006</v>
+        <v>42010</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -4672,7 +4653,7 @@
       </c>
       <c r="L23" s="95" t="str">
         <f>_xll.qlOISRateHelper(K23,2,C23,J23,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS15M#0002</v>
+        <v>HKD_YCRH_OIS15M#0001</v>
       </c>
       <c r="M23" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -4681,11 +4662,11 @@
       <c r="N23" s="81"/>
       <c r="P23" s="106">
         <f>_xll.qlRateHelperEarliestDate($L23)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q23" s="106">
         <f>_xll.qlRateHelperLatestDate($L23)</f>
-        <v>42037</v>
+        <v>42041</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -4723,7 +4704,7 @@
       </c>
       <c r="L24" s="95" t="str">
         <f>_xll.qlOISRateHelper(K24,2,C24,J24,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS16M#0003</v>
+        <v>HKD_YCRH_OIS16M#0000</v>
       </c>
       <c r="M24" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -4732,11 +4713,11 @@
       <c r="N24" s="81"/>
       <c r="P24" s="106">
         <f>_xll.qlRateHelperEarliestDate($L24)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q24" s="106">
         <f>_xll.qlRateHelperLatestDate($L24)</f>
-        <v>42065</v>
+        <v>42069</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -4774,7 +4755,7 @@
       </c>
       <c r="L25" s="95" t="str">
         <f>_xll.qlOISRateHelper(K25,2,C25,J25,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS17M#0003</v>
+        <v>HKD_YCRH_OIS17M#0000</v>
       </c>
       <c r="M25" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -4783,11 +4764,11 @@
       <c r="N25" s="81"/>
       <c r="P25" s="106">
         <f>_xll.qlRateHelperEarliestDate($L25)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q25" s="106">
         <f>_xll.qlRateHelperLatestDate($L25)</f>
-        <v>42095</v>
+        <v>42101</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -4825,7 +4806,7 @@
       </c>
       <c r="L26" s="95" t="str">
         <f>_xll.qlOISRateHelper(K26,2,C26,J26,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS18M#0003</v>
+        <v>HKD_YCRH_OIS18M#0001</v>
       </c>
       <c r="M26" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -4834,11 +4815,11 @@
       <c r="N26" s="81"/>
       <c r="P26" s="106">
         <f>_xll.qlRateHelperEarliestDate($L26)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q26" s="106">
         <f>_xll.qlRateHelperLatestDate($L26)</f>
-        <v>42128</v>
+        <v>42130</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -4876,7 +4857,7 @@
       </c>
       <c r="L27" s="95" t="str">
         <f>_xll.qlOISRateHelper(K27,2,C27,J27,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS19M#0003</v>
+        <v>HKD_YCRH_OIS19M#0001</v>
       </c>
       <c r="M27" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -4885,11 +4866,11 @@
       <c r="N27" s="81"/>
       <c r="P27" s="106">
         <f>_xll.qlRateHelperEarliestDate($L27)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q27" s="106">
         <f>_xll.qlRateHelperLatestDate($L27)</f>
-        <v>42156</v>
+        <v>42163</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -4927,7 +4908,7 @@
       </c>
       <c r="L28" s="95" t="str">
         <f>_xll.qlOISRateHelper(K28,2,C28,J28,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS20M#0003</v>
+        <v>HKD_YCRH_OIS20M#0001</v>
       </c>
       <c r="M28" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -4936,11 +4917,11 @@
       <c r="N28" s="81"/>
       <c r="P28" s="106">
         <f>_xll.qlRateHelperEarliestDate($L28)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q28" s="106">
         <f>_xll.qlRateHelperLatestDate($L28)</f>
-        <v>42186</v>
+        <v>42191</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -4978,7 +4959,7 @@
       </c>
       <c r="L29" s="95" t="str">
         <f>_xll.qlOISRateHelper(K29,2,C29,J29,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS21M#0003</v>
+        <v>HKD_YCRH_OIS21M#0001</v>
       </c>
       <c r="M29" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -4987,11 +4968,11 @@
       <c r="N29" s="81"/>
       <c r="P29" s="106">
         <f>_xll.qlRateHelperEarliestDate($L29)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q29" s="106">
         <f>_xll.qlRateHelperLatestDate($L29)</f>
-        <v>42219</v>
+        <v>42222</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -5029,7 +5010,7 @@
       </c>
       <c r="L30" s="95" t="str">
         <f>_xll.qlOISRateHelper(K30,2,C30,J30,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS22M#0002</v>
+        <v>HKD_YCRH_OIS22M#0001</v>
       </c>
       <c r="M30" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -5038,11 +5019,11 @@
       <c r="N30" s="81"/>
       <c r="P30" s="106">
         <f>_xll.qlRateHelperEarliestDate($L30)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q30" s="106">
         <f>_xll.qlRateHelperLatestDate($L30)</f>
-        <v>42248</v>
+        <v>42254</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -5080,7 +5061,7 @@
       </c>
       <c r="L31" s="95" t="str">
         <f>_xll.qlOISRateHelper(K31,2,C31,J31,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS23M#0003</v>
+        <v>HKD_YCRH_OIS23M#0001</v>
       </c>
       <c r="M31" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -5089,11 +5070,11 @@
       <c r="N31" s="81"/>
       <c r="P31" s="106">
         <f>_xll.qlRateHelperEarliestDate($L31)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q31" s="106">
         <f>_xll.qlRateHelperLatestDate($L31)</f>
-        <v>42278</v>
+        <v>42283</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -5131,7 +5112,7 @@
       </c>
       <c r="L32" s="95" t="str">
         <f>_xll.qlOISRateHelper(K32,2,C32,J32,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS2Y#0003</v>
+        <v>HKD_YCRH_OIS2Y#0001</v>
       </c>
       <c r="M32" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -5140,11 +5121,11 @@
       <c r="N32" s="81"/>
       <c r="P32" s="106">
         <f>_xll.qlRateHelperEarliestDate($L32)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q32" s="106">
         <f>_xll.qlRateHelperLatestDate($L32)</f>
-        <v>42310</v>
+        <v>42314</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -5182,7 +5163,7 @@
       </c>
       <c r="L33" s="95" t="str">
         <f>_xll.qlOISRateHelper(K33,2,C33,J33,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS27M#0003</v>
+        <v>HKD_YCRH_OIS27M#0000</v>
       </c>
       <c r="M33" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -5227,7 +5208,7 @@
       </c>
       <c r="L34" s="95" t="str">
         <f>_xll.qlOISRateHelper(K34,2,C34,J34,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS30M#0003</v>
+        <v>HKD_YCRH_OIS30M#0000</v>
       </c>
       <c r="M34" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -5272,7 +5253,7 @@
       </c>
       <c r="L35" s="95" t="str">
         <f>_xll.qlOISRateHelper(K35,2,C35,J35,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS33M#0003</v>
+        <v>HKD_YCRH_OIS33M#0001</v>
       </c>
       <c r="M35" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -5317,7 +5298,7 @@
       </c>
       <c r="L36" s="95" t="str">
         <f>_xll.qlOISRateHelper(K36,2,C36,J36,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS3Y#0003</v>
+        <v>HKD_YCRH_OIS3Y#0001</v>
       </c>
       <c r="M36" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -5362,7 +5343,7 @@
       </c>
       <c r="L37" s="95" t="str">
         <f>_xll.qlOISRateHelper(K37,2,C37,J37,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS39M#0003</v>
+        <v>HKD_YCRH_OIS39M#0001</v>
       </c>
       <c r="M37" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -5407,7 +5388,7 @@
       </c>
       <c r="L38" s="95" t="str">
         <f>_xll.qlOISRateHelper(K38,2,C38,J38,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS42M#0003</v>
+        <v>HKD_YCRH_OIS42M#0000</v>
       </c>
       <c r="M38" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -5452,7 +5433,7 @@
       </c>
       <c r="L39" s="95" t="str">
         <f>_xll.qlOISRateHelper(K39,2,C39,J39,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS45M#0003</v>
+        <v>HKD_YCRH_OIS45M#0001</v>
       </c>
       <c r="M39" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -5497,7 +5478,7 @@
       </c>
       <c r="L40" s="95" t="str">
         <f>_xll.qlOISRateHelper(K40,2,C40,J40,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS4Y#0002</v>
+        <v>HKD_YCRH_OIS4Y#0000</v>
       </c>
       <c r="M40" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -5542,7 +5523,7 @@
       </c>
       <c r="L41" s="95" t="str">
         <f>_xll.qlOISRateHelper(K41,2,C41,J41,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS51M#0003</v>
+        <v>HKD_YCRH_OIS51M#0000</v>
       </c>
       <c r="M41" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -5587,7 +5568,7 @@
       </c>
       <c r="L42" s="95" t="str">
         <f>_xll.qlOISRateHelper(K42,2,C42,J42,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS54M#0003</v>
+        <v>HKD_YCRH_OIS54M#0000</v>
       </c>
       <c r="M42" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -5632,7 +5613,7 @@
       </c>
       <c r="L43" s="95" t="str">
         <f>_xll.qlOISRateHelper(K43,2,C43,J43,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS57M#0002</v>
+        <v>HKD_YCRH_OIS57M#0000</v>
       </c>
       <c r="M43" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L43)</f>
@@ -5677,7 +5658,7 @@
       </c>
       <c r="L44" s="95" t="str">
         <f>_xll.qlOISRateHelper(K44,2,C44,J44,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS5Y#0003</v>
+        <v>HKD_YCRH_OIS5Y#0001</v>
       </c>
       <c r="M44" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -5722,7 +5703,7 @@
       </c>
       <c r="L45" s="95" t="str">
         <f>_xll.qlOISRateHelper(K45,2,C45,J45,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS6Y#0003</v>
+        <v>HKD_YCRH_OIS6Y#0001</v>
       </c>
       <c r="M45" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -5767,7 +5748,7 @@
       </c>
       <c r="L46" s="95" t="str">
         <f>_xll.qlOISRateHelper(K46,2,C46,J46,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS7Y#0003</v>
+        <v>HKD_YCRH_OIS7Y#0001</v>
       </c>
       <c r="M46" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -5812,7 +5793,7 @@
       </c>
       <c r="L47" s="95" t="str">
         <f>_xll.qlOISRateHelper(K47,2,C47,J47,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS8Y#0003</v>
+        <v>HKD_YCRH_OIS8Y#0000</v>
       </c>
       <c r="M47" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -5857,7 +5838,7 @@
       </c>
       <c r="L48" s="95" t="str">
         <f>_xll.qlOISRateHelper(K48,2,C48,J48,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS9Y#0003</v>
+        <v>HKD_YCRH_OIS9Y#0000</v>
       </c>
       <c r="M48" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -5902,7 +5883,7 @@
       </c>
       <c r="L49" s="95" t="str">
         <f>_xll.qlOISRateHelper(K49,2,C49,J49,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS10Y#0003</v>
+        <v>HKD_YCRH_OIS10Y#0001</v>
       </c>
       <c r="M49" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -5947,7 +5928,7 @@
       </c>
       <c r="L50" s="95" t="str">
         <f>_xll.qlOISRateHelper(K50,2,C50,J50,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS12Y#0003</v>
+        <v>HKD_YCRH_OIS12Y#0001</v>
       </c>
       <c r="M50" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -5992,7 +5973,7 @@
       </c>
       <c r="L51" s="95" t="str">
         <f>_xll.qlOISRateHelper(K51,2,C51,J51,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS15Y#0003</v>
+        <v>HKD_YCRH_OIS15Y#0000</v>
       </c>
       <c r="M51" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L51)</f>
@@ -6037,7 +6018,7 @@
       </c>
       <c r="L52" s="95" t="str">
         <f>_xll.qlOISRateHelper(K52,2,C52,J52,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS20Y#0003</v>
+        <v>HKD_YCRH_OIS20Y#0001</v>
       </c>
       <c r="M52" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L52)</f>
@@ -6082,7 +6063,7 @@
       </c>
       <c r="L53" s="95" t="str">
         <f>_xll.qlOISRateHelper(K53,2,C53,J53,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS25Y#0003</v>
+        <v>HKD_YCRH_OIS25Y#0001</v>
       </c>
       <c r="M53" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L53)</f>
@@ -6127,7 +6108,7 @@
       </c>
       <c r="L54" s="95" t="str">
         <f>_xll.qlOISRateHelper(K54,2,C54,J54,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS27Y#0002</v>
+        <v>HKD_YCRH_OIS27Y#0001</v>
       </c>
       <c r="M54" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L54)</f>
@@ -6136,11 +6117,11 @@
       <c r="N54" s="81"/>
       <c r="P54" s="106">
         <f>_xll.qlRateHelperEarliestDate($L54)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q54" s="106">
         <f>_xll.qlRateHelperLatestDate($L54)</f>
-        <v>51441</v>
+        <v>51446</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -6178,7 +6159,7 @@
       </c>
       <c r="L55" s="95" t="str">
         <f>_xll.qlOISRateHelper(K55,2,C55,J55,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS30Y#0003</v>
+        <v>HKD_YCRH_OIS30Y#0001</v>
       </c>
       <c r="M55" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L55)</f>
@@ -6187,11 +6168,11 @@
       <c r="N55" s="81"/>
       <c r="P55" s="106">
         <f>_xll.qlRateHelperEarliestDate($L55)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q55" s="106">
         <f>_xll.qlRateHelperLatestDate($L55)</f>
-        <v>52537</v>
+        <v>52541</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -6229,7 +6210,7 @@
       </c>
       <c r="L56" s="95" t="str">
         <f>_xll.qlOISRateHelper(K56,2,C56,J56,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS35Y#0003</v>
+        <v>HKD_YCRH_OIS35Y#0001</v>
       </c>
       <c r="M56" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L56)</f>
@@ -6238,11 +6219,11 @@
       <c r="N56" s="81"/>
       <c r="P56" s="106">
         <f>_xll.qlRateHelperEarliestDate($L56)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q56" s="106">
         <f>_xll.qlRateHelperLatestDate($L56)</f>
-        <v>54364</v>
+        <v>54368</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
@@ -6280,7 +6261,7 @@
       </c>
       <c r="L57" s="95" t="str">
         <f>_xll.qlOISRateHelper(K57,2,C57,J57,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS40Y#0003</v>
+        <v>HKD_YCRH_OIS40Y#0001</v>
       </c>
       <c r="M57" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L57)</f>
@@ -6289,11 +6270,11 @@
       <c r="N57" s="81"/>
       <c r="P57" s="106">
         <f>_xll.qlRateHelperEarliestDate($L57)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q57" s="106">
         <f>_xll.qlRateHelperLatestDate($L57)</f>
-        <v>56191</v>
+        <v>56194</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -6331,7 +6312,7 @@
       </c>
       <c r="L58" s="95" t="str">
         <f>_xll.qlOISRateHelper(K58,2,C58,J58,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS45Y#0003</v>
+        <v>HKD_YCRH_OIS45Y#0000</v>
       </c>
       <c r="M58" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L58)</f>
@@ -6340,11 +6321,11 @@
       <c r="N58" s="81"/>
       <c r="P58" s="106">
         <f>_xll.qlRateHelperEarliestDate($L58)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q58" s="106">
         <f>_xll.qlRateHelperLatestDate($L58)</f>
-        <v>58015</v>
+        <v>58020</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -6382,7 +6363,7 @@
       </c>
       <c r="L59" s="95" t="str">
         <f>_xll.qlOISRateHelper(K59,2,C59,J59,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS50Y#0003</v>
+        <v>HKD_YCRH_OIS50Y#0001</v>
       </c>
       <c r="M59" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L59)</f>
@@ -6391,11 +6372,11 @@
       <c r="N59" s="81"/>
       <c r="P59" s="106">
         <f>_xll.qlRateHelperEarliestDate($L59)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q59" s="106">
         <f>_xll.qlRateHelperLatestDate($L59)</f>
-        <v>59841</v>
+        <v>59846</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -8386,13 +8367,13 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>HKD_YCONRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="84">
+      <c r="L3" s="84" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L95),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>55</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YCONRH_Swaps.xml</v>
       </c>
       <c r="N3" s="81"/>
     </row>
@@ -8413,7 +8394,7 @@
       </c>
       <c r="L4" s="88" t="str">
         <f>_xll.qlEonia(K4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS_HiborON#0003</v>
+        <v>HKD_YCONRH_OIS_HiborON#0001</v>
       </c>
       <c r="M4" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -8472,7 +8453,7 @@
       </c>
       <c r="L6" s="95" t="str">
         <f>_xll.qlOISRateHelper(K6,2,C6,J6,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OISSW#0001</v>
+        <v>HKD_YCONRH_OISSW#0000</v>
       </c>
       <c r="M6" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -8481,11 +8462,11 @@
       <c r="N6" s="81"/>
       <c r="P6" s="106">
         <f>_xll.qlRateHelperEarliestDate($L6)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q6" s="106">
         <f>_xll.qlRateHelperLatestDate($L6)</f>
-        <v>41586</v>
+        <v>41591</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -8524,7 +8505,7 @@
       </c>
       <c r="L7" s="95" t="str">
         <f>_xll.qlOISRateHelper(K7,2,C7,J7,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS2W#0001</v>
+        <v>HKD_YCONRH_OIS2W#0000</v>
       </c>
       <c r="M7" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -8533,11 +8514,11 @@
       <c r="N7" s="81"/>
       <c r="P7" s="106">
         <f>_xll.qlRateHelperEarliestDate(L7)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q7" s="106">
         <f>_xll.qlRateHelperLatestDate($L7)</f>
-        <v>41593</v>
+        <v>41598</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -8576,7 +8557,7 @@
       </c>
       <c r="L8" s="95" t="str">
         <f>_xll.qlOISRateHelper(K8,2,C8,J8,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS3W#0001</v>
+        <v>HKD_YCONRH_OIS3W#0000</v>
       </c>
       <c r="M8" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -8585,11 +8566,11 @@
       <c r="N8" s="81"/>
       <c r="P8" s="106">
         <f>_xll.qlRateHelperEarliestDate(L8)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q8" s="106">
         <f>_xll.qlRateHelperLatestDate($L8)</f>
-        <v>41600</v>
+        <v>41605</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -8628,7 +8609,7 @@
       </c>
       <c r="L9" s="95" t="str">
         <f>_xll.qlOISRateHelper(K9,2,C9,J9,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS1M#0001</v>
+        <v>HKD_YCONRH_OIS1M#0000</v>
       </c>
       <c r="M9" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -8637,11 +8618,11 @@
       <c r="N9" s="81"/>
       <c r="P9" s="106">
         <f>_xll.qlRateHelperEarliestDate(L9)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q9" s="106">
         <f>_xll.qlRateHelperLatestDate($L9)</f>
-        <v>41610</v>
+        <v>41614</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -8680,7 +8661,7 @@
       </c>
       <c r="L10" s="95" t="str">
         <f>_xll.qlOISRateHelper(K10,2,C10,J10,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS2M#0001</v>
+        <v>HKD_YCONRH_OIS2M#0000</v>
       </c>
       <c r="M10" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -8689,11 +8670,11 @@
       <c r="N10" s="81"/>
       <c r="P10" s="106">
         <f>_xll.qlRateHelperEarliestDate(L10)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q10" s="106">
         <f>_xll.qlRateHelperLatestDate($L10)</f>
-        <v>41641</v>
+        <v>41645</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -8732,7 +8713,7 @@
       </c>
       <c r="L11" s="95" t="str">
         <f>_xll.qlOISRateHelper(K11,2,C11,J11,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS3M#0003</v>
+        <v>HKD_YCONRH_OIS3M#0000</v>
       </c>
       <c r="M11" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -8741,11 +8722,11 @@
       <c r="N11" s="81"/>
       <c r="P11" s="106">
         <f>_xll.qlRateHelperEarliestDate(L11)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q11" s="106">
         <f>_xll.qlRateHelperLatestDate($L11)</f>
-        <v>41673</v>
+        <v>41676</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -8784,7 +8765,7 @@
       </c>
       <c r="L12" s="95" t="str">
         <f>_xll.qlOISRateHelper(K12,2,C12,J12,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS4M#0003</v>
+        <v>HKD_YCONRH_OIS4M#0000</v>
       </c>
       <c r="M12" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -8793,11 +8774,11 @@
       <c r="N12" s="81"/>
       <c r="P12" s="106">
         <f>_xll.qlRateHelperEarliestDate(L12)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q12" s="106">
         <f>_xll.qlRateHelperLatestDate($L12)</f>
-        <v>41701</v>
+        <v>41704</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -8836,7 +8817,7 @@
       </c>
       <c r="L13" s="95" t="str">
         <f>_xll.qlOISRateHelper(K13,2,C13,J13,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS5M#0002</v>
+        <v>HKD_YCONRH_OIS5M#0000</v>
       </c>
       <c r="M13" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -8845,11 +8826,11 @@
       <c r="N13" s="81"/>
       <c r="P13" s="106">
         <f>_xll.qlRateHelperEarliestDate(L13)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q13" s="106">
         <f>_xll.qlRateHelperLatestDate($L13)</f>
-        <v>41730</v>
+        <v>41736</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -8888,7 +8869,7 @@
       </c>
       <c r="L14" s="95" t="str">
         <f>_xll.qlOISRateHelper(K14,2,C14,J14,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS6M#0002</v>
+        <v>HKD_YCONRH_OIS6M#0001</v>
       </c>
       <c r="M14" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -8897,11 +8878,11 @@
       <c r="N14" s="81"/>
       <c r="P14" s="106">
         <f>_xll.qlRateHelperEarliestDate(L14)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q14" s="106">
         <f>_xll.qlRateHelperLatestDate($L14)</f>
-        <v>41761</v>
+        <v>41765</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -8940,7 +8921,7 @@
       </c>
       <c r="L15" s="95" t="str">
         <f>_xll.qlOISRateHelper(K15,2,C15,J15,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS7M#0002</v>
+        <v>HKD_YCONRH_OIS7M#0000</v>
       </c>
       <c r="M15" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -8949,11 +8930,11 @@
       <c r="N15" s="81"/>
       <c r="P15" s="106">
         <f>_xll.qlRateHelperEarliestDate(L15)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q15" s="106">
         <f>_xll.qlRateHelperLatestDate($L15)</f>
-        <v>41792</v>
+        <v>41796</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -8992,7 +8973,7 @@
       </c>
       <c r="L16" s="95" t="str">
         <f>_xll.qlOISRateHelper(K16,2,C16,J16,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS8M#0002</v>
+        <v>HKD_YCONRH_OIS8M#0000</v>
       </c>
       <c r="M16" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -9001,11 +8982,11 @@
       <c r="N16" s="81"/>
       <c r="P16" s="106">
         <f>_xll.qlRateHelperEarliestDate(L16)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q16" s="106">
         <f>_xll.qlRateHelperLatestDate($L16)</f>
-        <v>41821</v>
+        <v>41827</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -9053,11 +9034,11 @@
       <c r="N17" s="81"/>
       <c r="P17" s="106">
         <f>_xll.qlRateHelperEarliestDate(L17)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q17" s="106">
         <f>_xll.qlRateHelperLatestDate($L17)</f>
-        <v>41852</v>
+        <v>41857</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -9096,7 +9077,7 @@
       </c>
       <c r="L18" s="95" t="str">
         <f>_xll.qlOISRateHelper(K18,2,C18,J18,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS10M#0001</v>
+        <v>HKD_YCONRH_OIS10M#0000</v>
       </c>
       <c r="M18" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -9105,11 +9086,11 @@
       <c r="N18" s="81"/>
       <c r="P18" s="106">
         <f>_xll.qlRateHelperEarliestDate(L18)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q18" s="106">
         <f>_xll.qlRateHelperLatestDate($L18)</f>
-        <v>41883</v>
+        <v>41890</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -9148,7 +9129,7 @@
       </c>
       <c r="L19" s="95" t="str">
         <f>_xll.qlOISRateHelper(K19,2,C19,J19,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS11M#0003</v>
+        <v>HKD_YCONRH_OIS11M#0001</v>
       </c>
       <c r="M19" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -9157,11 +9138,11 @@
       <c r="N19" s="81"/>
       <c r="P19" s="106">
         <f>_xll.qlRateHelperEarliestDate(L19)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q19" s="106">
         <f>_xll.qlRateHelperLatestDate($L19)</f>
-        <v>41913</v>
+        <v>41918</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -9200,7 +9181,7 @@
       </c>
       <c r="L20" s="95" t="str">
         <f>_xll.qlOISRateHelper(K20,2,C20,J20,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS1Y#0001</v>
+        <v>HKD_YCONRH_OIS1Y#0000</v>
       </c>
       <c r="M20" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -9209,11 +9190,11 @@
       <c r="N20" s="81"/>
       <c r="P20" s="106">
         <f>_xll.qlRateHelperEarliestDate(L20)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q20" s="106">
         <f>_xll.qlRateHelperLatestDate($L20)</f>
-        <v>41946</v>
+        <v>41949</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -9252,7 +9233,7 @@
       </c>
       <c r="L21" s="95" t="str">
         <f>_xll.qlOISRateHelper(K21,2,C21,J21,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS13M#0001</v>
+        <v>HKD_YCONRH_OIS13M#0000</v>
       </c>
       <c r="M21" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -9261,11 +9242,11 @@
       <c r="N21" s="81"/>
       <c r="P21" s="106">
         <f>_xll.qlRateHelperEarliestDate(L21)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q21" s="106">
         <f>_xll.qlRateHelperLatestDate($L21)</f>
-        <v>41974</v>
+        <v>41981</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -9304,7 +9285,7 @@
       </c>
       <c r="L22" s="95" t="str">
         <f>_xll.qlOISRateHelper(K22,2,C22,J22,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS14M#0001</v>
+        <v>HKD_YCONRH_OIS14M#0000</v>
       </c>
       <c r="M22" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -9313,11 +9294,11 @@
       <c r="N22" s="81"/>
       <c r="P22" s="106">
         <f>_xll.qlRateHelperEarliestDate(L22)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q22" s="106">
         <f>_xll.qlRateHelperLatestDate($L22)</f>
-        <v>42006</v>
+        <v>42010</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -9356,7 +9337,7 @@
       </c>
       <c r="L23" s="95" t="str">
         <f>_xll.qlOISRateHelper(K23,2,C23,J23,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS15M#0001</v>
+        <v>HKD_YCONRH_OIS15M#0000</v>
       </c>
       <c r="M23" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -9365,11 +9346,11 @@
       <c r="N23" s="81"/>
       <c r="P23" s="106">
         <f>_xll.qlRateHelperEarliestDate(L23)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q23" s="106">
         <f>_xll.qlRateHelperLatestDate($L23)</f>
-        <v>42037</v>
+        <v>42041</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -9408,7 +9389,7 @@
       </c>
       <c r="L24" s="95" t="str">
         <f>_xll.qlOISRateHelper(K24,2,C24,J24,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS16M#0001</v>
+        <v>HKD_YCONRH_OIS16M#0000</v>
       </c>
       <c r="M24" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -9417,11 +9398,11 @@
       <c r="N24" s="81"/>
       <c r="P24" s="106">
         <f>_xll.qlRateHelperEarliestDate(L24)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q24" s="106">
         <f>_xll.qlRateHelperLatestDate($L24)</f>
-        <v>42065</v>
+        <v>42069</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -9460,7 +9441,7 @@
       </c>
       <c r="L25" s="95" t="str">
         <f>_xll.qlOISRateHelper(K25,2,C25,J25,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS17M#0003</v>
+        <v>HKD_YCONRH_OIS17M#0000</v>
       </c>
       <c r="M25" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -9469,11 +9450,11 @@
       <c r="N25" s="81"/>
       <c r="P25" s="106">
         <f>_xll.qlRateHelperEarliestDate(L25)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q25" s="106">
         <f>_xll.qlRateHelperLatestDate($L25)</f>
-        <v>42095</v>
+        <v>42101</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -9512,7 +9493,7 @@
       </c>
       <c r="L26" s="95" t="str">
         <f>_xll.qlOISRateHelper(K26,2,C26,J26,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS18M#0002</v>
+        <v>HKD_YCONRH_OIS18M#0001</v>
       </c>
       <c r="M26" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -9521,11 +9502,11 @@
       <c r="N26" s="81"/>
       <c r="P26" s="106">
         <f>_xll.qlRateHelperEarliestDate(L26)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q26" s="106">
         <f>_xll.qlRateHelperLatestDate($L26)</f>
-        <v>42128</v>
+        <v>42130</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -9564,7 +9545,7 @@
       </c>
       <c r="L27" s="95" t="str">
         <f>_xll.qlOISRateHelper(K27,2,C27,J27,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS19M#0003</v>
+        <v>HKD_YCONRH_OIS19M#0001</v>
       </c>
       <c r="M27" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -9573,11 +9554,11 @@
       <c r="N27" s="81"/>
       <c r="P27" s="106">
         <f>_xll.qlRateHelperEarliestDate(L27)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q27" s="106">
         <f>_xll.qlRateHelperLatestDate($L27)</f>
-        <v>42156</v>
+        <v>42163</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -9616,7 +9597,7 @@
       </c>
       <c r="L28" s="95" t="str">
         <f>_xll.qlOISRateHelper(K28,2,C28,J28,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS20M#0001</v>
+        <v>HKD_YCONRH_OIS20M#0000</v>
       </c>
       <c r="M28" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -9625,11 +9606,11 @@
       <c r="N28" s="81"/>
       <c r="P28" s="106">
         <f>_xll.qlRateHelperEarliestDate(L28)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q28" s="106">
         <f>_xll.qlRateHelperLatestDate($L28)</f>
-        <v>42186</v>
+        <v>42191</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -9668,7 +9649,7 @@
       </c>
       <c r="L29" s="95" t="str">
         <f>_xll.qlOISRateHelper(K29,2,C29,J29,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS21M#0001</v>
+        <v>HKD_YCONRH_OIS21M#0000</v>
       </c>
       <c r="M29" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -9677,11 +9658,11 @@
       <c r="N29" s="81"/>
       <c r="P29" s="106">
         <f>_xll.qlRateHelperEarliestDate(L29)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q29" s="106">
         <f>_xll.qlRateHelperLatestDate($L29)</f>
-        <v>42219</v>
+        <v>42222</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -9729,11 +9710,11 @@
       <c r="N30" s="81"/>
       <c r="P30" s="106">
         <f>_xll.qlRateHelperEarliestDate(L30)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q30" s="106">
         <f>_xll.qlRateHelperLatestDate($L30)</f>
-        <v>42248</v>
+        <v>42254</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -9781,11 +9762,11 @@
       <c r="N31" s="81"/>
       <c r="P31" s="106">
         <f>_xll.qlRateHelperEarliestDate(L31)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q31" s="106">
         <f>_xll.qlRateHelperLatestDate($L31)</f>
-        <v>42278</v>
+        <v>42283</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -9824,7 +9805,7 @@
       </c>
       <c r="L32" s="95" t="str">
         <f>_xll.qlOISRateHelper(K32,2,C32,J32,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS2Y#0002</v>
+        <v>HKD_YCONRH_OIS2Y#0000</v>
       </c>
       <c r="M32" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -9833,11 +9814,11 @@
       <c r="N32" s="81"/>
       <c r="P32" s="106">
         <f>_xll.qlRateHelperEarliestDate(L32)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q32" s="106">
         <f>_xll.qlRateHelperLatestDate($L32)</f>
-        <v>42310</v>
+        <v>42314</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -9876,7 +9857,7 @@
       </c>
       <c r="L33" s="95" t="str">
         <f>_xll.qlOISRateHelper(K33,2,C33,J33,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS27M#0001</v>
+        <v>HKD_YCONRH_OIS27M#0000</v>
       </c>
       <c r="M33" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -9885,11 +9866,11 @@
       <c r="N33" s="81"/>
       <c r="P33" s="106">
         <f>_xll.qlRateHelperEarliestDate(L33)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q33" s="106">
         <f>_xll.qlRateHelperLatestDate($L33)</f>
-        <v>42401</v>
+        <v>42408</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -9928,7 +9909,7 @@
       </c>
       <c r="L34" s="95" t="str">
         <f>_xll.qlOISRateHelper(K34,2,C34,J34,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS30M#0001</v>
+        <v>HKD_YCONRH_OIS30M#0000</v>
       </c>
       <c r="M34" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -9937,11 +9918,11 @@
       <c r="N34" s="81"/>
       <c r="P34" s="106">
         <f>_xll.qlRateHelperEarliestDate(L34)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q34" s="106">
         <f>_xll.qlRateHelperLatestDate($L34)</f>
-        <v>42492</v>
+        <v>42496</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -9980,7 +9961,7 @@
       </c>
       <c r="L35" s="95" t="str">
         <f>_xll.qlOISRateHelper(K35,2,C35,J35,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS33M#0001</v>
+        <v>HKD_YCONRH_OIS33M#0000</v>
       </c>
       <c r="M35" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -9989,11 +9970,11 @@
       <c r="N35" s="81"/>
       <c r="P35" s="106">
         <f>_xll.qlRateHelperEarliestDate(L35)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q35" s="106">
         <f>_xll.qlRateHelperLatestDate($L35)</f>
-        <v>42583</v>
+        <v>42590</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
@@ -10032,7 +10013,7 @@
       </c>
       <c r="L36" s="95" t="str">
         <f>_xll.qlOISRateHelper(K36,2,C36,J36,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS3Y#0001</v>
+        <v>HKD_YCONRH_OIS3Y#0000</v>
       </c>
       <c r="M36" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -10041,11 +10022,11 @@
       <c r="N36" s="81"/>
       <c r="P36" s="106">
         <f>_xll.qlRateHelperEarliestDate(L36)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q36" s="106">
         <f>_xll.qlRateHelperLatestDate($L36)</f>
-        <v>42675</v>
+        <v>42681</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
@@ -10084,7 +10065,7 @@
       </c>
       <c r="L37" s="95" t="str">
         <f>_xll.qlOISRateHelper(K37,2,C37,J37,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS39M#0001</v>
+        <v>HKD_YCONRH_OIS39M#0000</v>
       </c>
       <c r="M37" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -10093,11 +10074,11 @@
       <c r="N37" s="81"/>
       <c r="P37" s="106">
         <f>_xll.qlRateHelperEarliestDate(L37)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q37" s="106">
         <f>_xll.qlRateHelperLatestDate($L37)</f>
-        <v>42767</v>
+        <v>42772</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -10136,7 +10117,7 @@
       </c>
       <c r="L38" s="95" t="str">
         <f>_xll.qlOISRateHelper(K38,2,C38,J38,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS42M#0002</v>
+        <v>HKD_YCONRH_OIS42M#0001</v>
       </c>
       <c r="M38" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -10182,7 +10163,7 @@
       </c>
       <c r="L39" s="95" t="str">
         <f>_xll.qlOISRateHelper(K39,2,C39,J39,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS45M#0003</v>
+        <v>HKD_YCONRH_OIS45M#0000</v>
       </c>
       <c r="M39" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -10228,7 +10209,7 @@
       </c>
       <c r="L40" s="95" t="str">
         <f>_xll.qlOISRateHelper(K40,2,C40,J40,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS4Y#0003</v>
+        <v>HKD_YCONRH_OIS4Y#0000</v>
       </c>
       <c r="M40" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -10274,7 +10255,7 @@
       </c>
       <c r="L41" s="95" t="str">
         <f>_xll.qlOISRateHelper(K41,2,C41,J41,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS51M#0001</v>
+        <v>HKD_YCONRH_OIS51M#0000</v>
       </c>
       <c r="M41" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -10366,7 +10347,7 @@
       </c>
       <c r="L43" s="95" t="str">
         <f>_xll.qlOISRateHelper(K43,2,C43,J43,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS57M#0001</v>
+        <v>HKD_YCONRH_OIS57M#0000</v>
       </c>
       <c r="M43" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L43)</f>
@@ -10412,7 +10393,7 @@
       </c>
       <c r="L44" s="95" t="str">
         <f>_xll.qlOISRateHelper(K44,2,C44,J44,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS5Y#0002</v>
+        <v>HKD_YCONRH_OIS5Y#0001</v>
       </c>
       <c r="M44" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -10458,7 +10439,7 @@
       </c>
       <c r="L45" s="95" t="str">
         <f>_xll.qlOISRateHelper(K45,2,C45,J45,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS6Y#0001</v>
+        <v>HKD_YCONRH_OIS6Y#0000</v>
       </c>
       <c r="M45" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -10504,7 +10485,7 @@
       </c>
       <c r="L46" s="95" t="str">
         <f>_xll.qlOISRateHelper(K46,2,C46,J46,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS7Y#0001</v>
+        <v>HKD_YCONRH_OIS7Y#0000</v>
       </c>
       <c r="M46" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -10550,7 +10531,7 @@
       </c>
       <c r="L47" s="95" t="str">
         <f>_xll.qlOISRateHelper(K47,2,C47,J47,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS8Y#0001</v>
+        <v>HKD_YCONRH_OIS8Y#0000</v>
       </c>
       <c r="M47" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -10642,7 +10623,7 @@
       </c>
       <c r="L49" s="95" t="str">
         <f>_xll.qlOISRateHelper(K49,2,C49,J49,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS10Y#0003</v>
+        <v>HKD_YCONRH_OIS10Y#0000</v>
       </c>
       <c r="M49" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -10688,7 +10669,7 @@
       </c>
       <c r="L50" s="95" t="str">
         <f>_xll.qlOISRateHelper(K50,2,C50,J50,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS12Y#0001</v>
+        <v>HKD_YCONRH_OIS12Y#0000</v>
       </c>
       <c r="M50" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -10734,7 +10715,7 @@
       </c>
       <c r="L51" s="95" t="str">
         <f>_xll.qlOISRateHelper(K51,2,C51,J51,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS15Y#0001</v>
+        <v>HKD_YCONRH_OIS15Y#0000</v>
       </c>
       <c r="M51" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L51)</f>
@@ -10780,7 +10761,7 @@
       </c>
       <c r="L52" s="95" t="str">
         <f>_xll.qlOISRateHelper(K52,2,C52,J52,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS20Y#0001</v>
+        <v>HKD_YCONRH_OIS20Y#0000</v>
       </c>
       <c r="M52" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L52)</f>
@@ -10826,7 +10807,7 @@
       </c>
       <c r="L53" s="95" t="str">
         <f>_xll.qlOISRateHelper(K53,2,C53,J53,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS25Y#0003</v>
+        <v>HKD_YCONRH_OIS25Y#0000</v>
       </c>
       <c r="M53" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L53)</f>
@@ -10918,7 +10899,7 @@
       </c>
       <c r="L55" s="95" t="str">
         <f>_xll.qlOISRateHelper(K55,2,C55,J55,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS30Y#0002</v>
+        <v>HKD_YCONRH_OIS30Y#0001</v>
       </c>
       <c r="M55" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L55)</f>
@@ -10964,7 +10945,7 @@
       </c>
       <c r="L56" s="95" t="str">
         <f>_xll.qlOISRateHelper(K56,2,C56,J56,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS35Y#0001</v>
+        <v>HKD_YCONRH_OIS35Y#0000</v>
       </c>
       <c r="M56" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L56)</f>
@@ -11010,7 +10991,7 @@
       </c>
       <c r="L57" s="95" t="str">
         <f>_xll.qlOISRateHelper(K57,2,C57,J57,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS40Y#0001</v>
+        <v>HKD_YCONRH_OIS40Y#0000</v>
       </c>
       <c r="M57" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L57)</f>
@@ -11056,7 +11037,7 @@
       </c>
       <c r="L58" s="95" t="str">
         <f>_xll.qlOISRateHelper(K58,2,C58,J58,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS45Y#0002</v>
+        <v>HKD_YCONRH_OIS45Y#0000</v>
       </c>
       <c r="M58" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L58)</f>
@@ -11102,7 +11083,7 @@
       </c>
       <c r="L59" s="95" t="str">
         <f>_xll.qlOISRateHelper(K59,2,C59,J59,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS50Y#0001</v>
+        <v>HKD_YCONRH_OIS50Y#0000</v>
       </c>
       <c r="M59" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L59)</f>
@@ -11111,11 +11092,11 @@
       <c r="N59" s="81"/>
       <c r="P59" s="106">
         <f>_xll.qlRateHelperEarliestDate(L59)</f>
-        <v>41579</v>
+        <v>41584</v>
       </c>
       <c r="Q59" s="106">
         <f>_xll.qlRateHelperLatestDate($L59)</f>
-        <v>59841</v>
+        <v>59846</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -13128,13 +13109,13 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>HKD_YC1MRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="45" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>12</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YC1MRH_Swaps.xml</v>
       </c>
       <c r="N3" s="58"/>
       <c r="S3" s="108" t="s">
@@ -13170,7 +13151,7 @@
       </c>
       <c r="L4" s="66" t="str">
         <f>_xll.qlIborIndex(K4,FamilyName,J2,S4,Currency,T4,U4,V4,W4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_xAM1H_Hibor1M#0003</v>
+        <v>HKD_YC1MRH_xAM1H_Hibor1M#0001</v>
       </c>
       <c r="M4" s="41" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -13246,7 +13227,7 @@
       </c>
       <c r="L6" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H2M#0003</v>
+        <v>HKD_YC1MRH_AM1H2M#0000</v>
       </c>
       <c r="M6" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -13291,7 +13272,7 @@
       </c>
       <c r="L7" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H3M#0002</v>
+        <v>HKD_YC1MRH_AM1H3M#0000</v>
       </c>
       <c r="M7" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -13336,7 +13317,7 @@
       </c>
       <c r="L8" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H4M#0003</v>
+        <v>HKD_YC1MRH_AM1H4M#0001</v>
       </c>
       <c r="M8" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -13381,7 +13362,7 @@
       </c>
       <c r="L9" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H5M#0003</v>
+        <v>HKD_YC1MRH_AM1H5M#0000</v>
       </c>
       <c r="M9" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -13426,7 +13407,7 @@
       </c>
       <c r="L10" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H6M#0003</v>
+        <v>HKD_YC1MRH_AM1H6M#0001</v>
       </c>
       <c r="M10" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -13471,7 +13452,7 @@
       </c>
       <c r="L11" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H7M#0003</v>
+        <v>HKD_YC1MRH_AM1H7M#0000</v>
       </c>
       <c r="M11" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -13516,7 +13497,7 @@
       </c>
       <c r="L12" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H8M#0003</v>
+        <v>HKD_YC1MRH_AM1H8M#0001</v>
       </c>
       <c r="M12" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -13561,7 +13542,7 @@
       </c>
       <c r="L13" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H9M#0003</v>
+        <v>HKD_YC1MRH_AM1H9M#0001</v>
       </c>
       <c r="M13" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -13606,7 +13587,7 @@
       </c>
       <c r="L14" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H10M#0003</v>
+        <v>HKD_YC1MRH_AM1H10M#0001</v>
       </c>
       <c r="M14" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -13651,7 +13632,7 @@
       </c>
       <c r="L15" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H11M#0003</v>
+        <v>HKD_YC1MRH_AM1H11M#0000</v>
       </c>
       <c r="M15" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -13696,7 +13677,7 @@
       </c>
       <c r="L16" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H1Y#0003</v>
+        <v>HKD_YC1MRH_AM1H1Y#0001</v>
       </c>
       <c r="M16" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -13864,13 +13845,13 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>HKD_YC3MRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="45" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L50,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>45</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="47" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YC3MRH_Swaps.xml</v>
       </c>
       <c r="N3" s="58"/>
       <c r="S3" s="108" t="s">
@@ -13906,7 +13887,7 @@
       </c>
       <c r="L4" s="66" t="str">
         <f>_xll.qlIborIndex(K4,FamilyName,J2,S4,Currency,T4,U4,V4,W4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H_Hibor3M#0003</v>
+        <v>HKD_YC3MRH_QM3H_Hibor3M#0001</v>
       </c>
       <c r="M4" s="41" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -15716,7 +15697,7 @@
       </c>
       <c r="L44" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K44,$J44,$E44&amp;"M",Calendar,$F44,$G44,$H44,$L$4,$I44,B44,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_1S12#0002</v>
+        <v>HKD_YC3MRH_1S12#0001</v>
       </c>
       <c r="M44" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -15759,7 +15740,7 @@
       </c>
       <c r="L45" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K45,$J45,$E45&amp;"M",Calendar,$F45,$G45,$H45,$L$4,$I45,B45,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_2S12#0002</v>
+        <v>HKD_YC3MRH_2S12#0001</v>
       </c>
       <c r="M45" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -15804,7 +15785,7 @@
       </c>
       <c r="L46" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K46,$J46,$E46&amp;"M",Calendar,$F46,$G46,$H46,$L$4,$I46,B46,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_3S12#0003</v>
+        <v>HKD_YC3MRH_3S12#0000</v>
       </c>
       <c r="M46" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -15849,7 +15830,7 @@
       </c>
       <c r="L47" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K47,$J47,$E47&amp;"M",Calendar,$F47,$G47,$H47,$L$4,$I47,B47,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_4S12#0003</v>
+        <v>HKD_YC3MRH_4S12#0001</v>
       </c>
       <c r="M47" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -15894,7 +15875,7 @@
       </c>
       <c r="L48" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K48,$J48,$E48&amp;"M",Calendar,$F48,$G48,$H48,$L$4,$I48,B48,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_1S24#0003</v>
+        <v>HKD_YC3MRH_1S24#0001</v>
       </c>
       <c r="M48" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -15939,7 +15920,7 @@
       </c>
       <c r="L49" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K49,$J49,$E49&amp;"M",Calendar,$F49,$G49,$H49,$L$4,$I49,B49,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_2S24#0002</v>
+        <v>HKD_YC3MRH_2S24#0001</v>
       </c>
       <c r="M49" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -15984,7 +15965,7 @@
       </c>
       <c r="L50" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K50,$J50,$E50&amp;"M",Calendar,$F50,$G50,$H50,$L$4,$I50,B50,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_1S36#0003</v>
+        <v>HKD_YC3MRH_1S36#0001</v>
       </c>
       <c r="M50" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -16051,7 +16032,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -16144,13 +16125,13 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>HKD_YC6MRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="45" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="47" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YC6MRH_Swaps.xml</v>
       </c>
       <c r="N3" s="20"/>
       <c r="S3" s="108" t="s">
@@ -16186,7 +16167,7 @@
       </c>
       <c r="L4" s="66" t="str">
         <f>_xll.qlIborIndex(K4,FamilyName,J2,S4,Currency,T4,U4,V4,W4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L_Hibor6M#0003</v>
+        <v>HKD_YC6MRH_SB6L_Hibor6M#0001</v>
       </c>
       <c r="M4" s="41" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -16430,7 +16411,7 @@
       </c>
       <c r="L9" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L21M#0003</v>
+        <v>HKD_YC6MRH_SB6L21M#0000</v>
       </c>
       <c r="M9" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -16540,7 +16521,7 @@
       </c>
       <c r="L11" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L3Y#0003</v>
+        <v>HKD_YC6MRH_SB6L3Y#0000</v>
       </c>
       <c r="M11" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_Swaps.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_Swaps.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="134">
   <si>
     <t>Currency</t>
   </si>
@@ -445,6 +445,9 @@
   </si>
   <si>
     <t>HongKong::HKEx</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1508,9 +1511,8 @@
       <c r="C8" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="38" t="str">
-        <f>qlSerializationPath(Trigger)</f>
-        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+      <c r="D8" s="38" t="s">
+        <v>133</v>
       </c>
       <c r="E8" s="28"/>
     </row>
@@ -1777,7 +1779,7 @@
       </c>
       <c r="M3" s="47" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YCSTDRH_Swaps.xml</v>
+        <v/>
       </c>
       <c r="N3" s="20"/>
       <c r="S3" s="108" t="s">
@@ -3706,7 +3708,7 @@
       </c>
       <c r="M3" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YCRH_Swaps.xml</v>
+        <v/>
       </c>
       <c r="N3" s="81"/>
     </row>
@@ -6438,7 +6440,7 @@
       </c>
       <c r="M61" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L61)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISNOV12_Quote'</v>
+        <v/>
       </c>
       <c r="N61" s="81"/>
       <c r="P61" s="106" t="e">
@@ -6491,7 +6493,7 @@
       </c>
       <c r="M62" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L62)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISDEC12_Quote'</v>
+        <v/>
       </c>
       <c r="N62" s="81"/>
       <c r="P62" s="106" t="e">
@@ -6544,7 +6546,7 @@
       </c>
       <c r="M63" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L63)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISJAN13_Quote'</v>
+        <v/>
       </c>
       <c r="N63" s="81"/>
       <c r="P63" s="106" t="e">
@@ -6597,7 +6599,7 @@
       </c>
       <c r="M64" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L64)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISFEB13_Quote'</v>
+        <v/>
       </c>
       <c r="N64" s="81"/>
       <c r="P64" s="106" t="e">
@@ -6650,7 +6652,7 @@
       </c>
       <c r="M65" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L65)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISMAR13_Quote'</v>
+        <v/>
       </c>
       <c r="N65" s="81"/>
       <c r="P65" s="106" t="e">
@@ -6703,7 +6705,7 @@
       </c>
       <c r="M66" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L66)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISAPR13_Quote'</v>
+        <v/>
       </c>
       <c r="N66" s="81"/>
       <c r="P66" s="106" t="e">
@@ -6756,7 +6758,7 @@
       </c>
       <c r="M67" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L67)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISMAY13_Quote'</v>
+        <v/>
       </c>
       <c r="N67" s="81"/>
       <c r="P67" s="106" t="e">
@@ -6809,7 +6811,7 @@
       </c>
       <c r="M68" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L68)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISJUN13_Quote'</v>
+        <v/>
       </c>
       <c r="N68" s="81"/>
       <c r="P68" s="106" t="e">
@@ -6862,7 +6864,7 @@
       </c>
       <c r="M69" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L69)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISJUL13_Quote'</v>
+        <v/>
       </c>
       <c r="N69" s="81"/>
       <c r="P69" s="106" t="e">
@@ -6915,7 +6917,7 @@
       </c>
       <c r="M70" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L70)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISAUG13_Quote'</v>
+        <v/>
       </c>
       <c r="N70" s="81"/>
       <c r="P70" s="106" t="e">
@@ -6968,7 +6970,7 @@
       </c>
       <c r="M71" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L71)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISSEP13_Quote'</v>
+        <v/>
       </c>
       <c r="N71" s="81"/>
       <c r="P71" s="106" t="e">
@@ -7021,7 +7023,7 @@
       </c>
       <c r="M72" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L72)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISOCT13_Quote'</v>
+        <v/>
       </c>
       <c r="N72" s="81"/>
       <c r="P72" s="106" t="e">
@@ -7074,7 +7076,7 @@
       </c>
       <c r="M73" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L73)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISNOV13_Quote'</v>
+        <v/>
       </c>
       <c r="N73" s="81"/>
       <c r="P73" s="106" t="e">
@@ -7127,7 +7129,7 @@
       </c>
       <c r="M74" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L74)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'EndDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
+        <v/>
       </c>
       <c r="N74" s="81"/>
       <c r="P74" s="106" t="e">
@@ -8373,7 +8375,7 @@
       </c>
       <c r="M3" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YCONRH_Swaps.xml</v>
+        <v/>
       </c>
       <c r="N3" s="81"/>
     </row>
@@ -11158,7 +11160,7 @@
       </c>
       <c r="M61" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L61)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISNOV12_Quote'</v>
+        <v/>
       </c>
       <c r="N61" s="81"/>
       <c r="P61" s="106" t="e">
@@ -11211,7 +11213,7 @@
       </c>
       <c r="M62" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L62)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISDEC12_Quote'</v>
+        <v/>
       </c>
       <c r="N62" s="81"/>
       <c r="P62" s="106" t="e">
@@ -11264,7 +11266,7 @@
       </c>
       <c r="M63" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L63)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISJAN13_Quote'</v>
+        <v/>
       </c>
       <c r="N63" s="81"/>
       <c r="P63" s="106" t="e">
@@ -11317,7 +11319,7 @@
       </c>
       <c r="M64" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L64)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISFEB13_Quote'</v>
+        <v/>
       </c>
       <c r="N64" s="81"/>
       <c r="P64" s="106" t="e">
@@ -11370,7 +11372,7 @@
       </c>
       <c r="M65" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L65)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISMAR13_Quote'</v>
+        <v/>
       </c>
       <c r="N65" s="81"/>
       <c r="P65" s="106" t="e">
@@ -11423,7 +11425,7 @@
       </c>
       <c r="M66" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L66)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISAPR13_Quote'</v>
+        <v/>
       </c>
       <c r="N66" s="81"/>
       <c r="P66" s="106" t="e">
@@ -11476,7 +11478,7 @@
       </c>
       <c r="M67" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L67)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISMAY13_Quote'</v>
+        <v/>
       </c>
       <c r="N67" s="81"/>
       <c r="P67" s="106" t="e">
@@ -11529,7 +11531,7 @@
       </c>
       <c r="M68" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L68)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISJUN13_Quote'</v>
+        <v/>
       </c>
       <c r="N68" s="81"/>
       <c r="P68" s="106" t="e">
@@ -11582,7 +11584,7 @@
       </c>
       <c r="M69" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L69)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISJUL13_Quote'</v>
+        <v/>
       </c>
       <c r="N69" s="81"/>
       <c r="P69" s="106" t="e">
@@ -11635,7 +11637,7 @@
       </c>
       <c r="M70" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L70)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISAUG13_Quote'</v>
+        <v/>
       </c>
       <c r="N70" s="81"/>
       <c r="P70" s="106" t="e">
@@ -11688,7 +11690,7 @@
       </c>
       <c r="M71" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L71)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISSEP13_Quote'</v>
+        <v/>
       </c>
       <c r="N71" s="81"/>
       <c r="P71" s="106" t="e">
@@ -11741,7 +11743,7 @@
       </c>
       <c r="M72" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L72)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISOCT13_Quote'</v>
+        <v/>
       </c>
       <c r="N72" s="81"/>
       <c r="P72" s="106" t="e">
@@ -11794,7 +11796,7 @@
       </c>
       <c r="M73" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L73)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISNOV13_Quote'</v>
+        <v/>
       </c>
       <c r="N73" s="81"/>
       <c r="P73" s="106" t="e">
@@ -11847,7 +11849,7 @@
       </c>
       <c r="M74" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L74)</f>
-        <v>qlDatedOISRateHelper - Error converting parameter 'EndDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
+        <v/>
       </c>
       <c r="N74" s="81"/>
       <c r="P74" s="106" t="e">
@@ -13115,7 +13117,7 @@
       </c>
       <c r="M3" s="43" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YC1MRH_Swaps.xml</v>
+        <v/>
       </c>
       <c r="N3" s="58"/>
       <c r="S3" s="108" t="s">
@@ -13851,7 +13853,7 @@
       </c>
       <c r="M3" s="47" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YC3MRH_Swaps.xml</v>
+        <v/>
       </c>
       <c r="N3" s="58"/>
       <c r="S3" s="108" t="s">
@@ -16131,7 +16133,7 @@
       </c>
       <c r="M3" s="47" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\HKD_YC6MRH_Swaps.xml</v>
+        <v/>
       </c>
       <c r="N3" s="20"/>
       <c r="S3" s="108" t="s">

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_Swaps.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_Swaps.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="133">
   <si>
     <t>Currency</t>
   </si>
@@ -445,9 +445,6 @@
   </si>
   <si>
     <t>HongKong::HKEx</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1511,8 +1508,9 @@
       <c r="C8" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="38" t="s">
-        <v>133</v>
+      <c r="D8" s="38" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="28"/>
     </row>
@@ -1774,12 +1772,12 @@
         <v>HKD_YCSTDRH_Swaps.xml</v>
       </c>
       <c r="L3" s="45" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="47" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="47" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="20"/>
       <c r="S3" s="108" t="s">
@@ -3703,12 +3701,12 @@
         <v>HKD_YCRH_Swaps.xml</v>
       </c>
       <c r="L3" s="84" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L95),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="85" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L95),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="81"/>
     </row>
@@ -6438,9 +6436,9 @@
         <f>_xll.qlDatedOISRateHelper(K61,B61,B62,J61,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M61" s="85" t="str">
+      <c r="M61" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L61)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N61" s="81"/>
       <c r="P61" s="106" t="e">
@@ -6491,9 +6489,9 @@
         <f>_xll.qlDatedOISRateHelper(K62,B62,B63,J62,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M62" s="85" t="str">
+      <c r="M62" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L62)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N62" s="81"/>
       <c r="P62" s="106" t="e">
@@ -6544,9 +6542,9 @@
         <f>_xll.qlDatedOISRateHelper(K63,B63,B64,J63,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M63" s="85" t="str">
+      <c r="M63" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L63)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N63" s="81"/>
       <c r="P63" s="106" t="e">
@@ -6597,9 +6595,9 @@
         <f>_xll.qlDatedOISRateHelper(K64,B64,B65,J64,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M64" s="85" t="str">
+      <c r="M64" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L64)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N64" s="81"/>
       <c r="P64" s="106" t="e">
@@ -6650,9 +6648,9 @@
         <f>_xll.qlDatedOISRateHelper(K65,B65,B66,J65,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M65" s="85" t="str">
+      <c r="M65" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L65)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N65" s="81"/>
       <c r="P65" s="106" t="e">
@@ -6703,9 +6701,9 @@
         <f>_xll.qlDatedOISRateHelper(K66,B66,B67,J66,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M66" s="85" t="str">
+      <c r="M66" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L66)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N66" s="81"/>
       <c r="P66" s="106" t="e">
@@ -6756,9 +6754,9 @@
         <f>_xll.qlDatedOISRateHelper(K67,B67,B68,J67,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M67" s="85" t="str">
+      <c r="M67" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L67)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N67" s="81"/>
       <c r="P67" s="106" t="e">
@@ -6809,9 +6807,9 @@
         <f>_xll.qlDatedOISRateHelper(K68,B68,B69,J68,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M68" s="85" t="str">
+      <c r="M68" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L68)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N68" s="81"/>
       <c r="P68" s="106" t="e">
@@ -6862,9 +6860,9 @@
         <f>_xll.qlDatedOISRateHelper(K69,B69,B70,J69,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M69" s="85" t="str">
+      <c r="M69" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L69)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N69" s="81"/>
       <c r="P69" s="106" t="e">
@@ -6915,9 +6913,9 @@
         <f>_xll.qlDatedOISRateHelper(K70,B70,B71,J70,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M70" s="85" t="str">
+      <c r="M70" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L70)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N70" s="81"/>
       <c r="P70" s="106" t="e">
@@ -6968,9 +6966,9 @@
         <f>_xll.qlDatedOISRateHelper(K71,B71,B72,J71,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M71" s="85" t="str">
+      <c r="M71" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L71)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N71" s="81"/>
       <c r="P71" s="106" t="e">
@@ -7021,9 +7019,9 @@
         <f>_xll.qlDatedOISRateHelper(K72,B72,B73,J72,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M72" s="85" t="str">
+      <c r="M72" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L72)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N72" s="81"/>
       <c r="P72" s="106" t="e">
@@ -7074,9 +7072,9 @@
         <f>_xll.qlDatedOISRateHelper(K73,B73,B74,J73,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M73" s="85" t="str">
+      <c r="M73" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L73)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N73" s="81"/>
       <c r="P73" s="106" t="e">
@@ -7127,9 +7125,9 @@
         <f>_xll.qlDatedOISRateHelper(K74,B74,B75,J74,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M74" s="85" t="str">
+      <c r="M74" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L74)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N74" s="81"/>
       <c r="P74" s="106" t="e">
@@ -7180,9 +7178,9 @@
         <f>_xll.qlDatedOISRateHelper(K75,B75,B76,J75,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M75" s="85" t="str">
+      <c r="M75" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L75)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N75" s="81"/>
       <c r="P75" s="106" t="e">
@@ -7233,9 +7231,9 @@
         <f>_xll.qlDatedOISRateHelper(K76,B76,B77,J76,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M76" s="85" t="str">
+      <c r="M76" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L76)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N76" s="81"/>
       <c r="P76" s="106" t="e">
@@ -7286,9 +7284,9 @@
         <f>_xll.qlDatedOISRateHelper(K77,B77,B78,J77,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M77" s="85" t="str">
+      <c r="M77" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L77)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N77" s="81"/>
       <c r="P77" s="106" t="e">
@@ -7339,9 +7337,9 @@
         <f>_xll.qlDatedOISRateHelper(K78,B78,B79,J78,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M78" s="85" t="str">
+      <c r="M78" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L78)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N78" s="81"/>
       <c r="P78" s="106" t="e">
@@ -7392,9 +7390,9 @@
         <f>_xll.qlDatedOISRateHelper(K79,B79,B80,J79,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M79" s="85" t="str">
+      <c r="M79" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L79)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N79" s="81"/>
       <c r="P79" s="106" t="e">
@@ -7445,9 +7443,9 @@
         <f>_xll.qlDatedOISRateHelper(K80,B80,B81,J80,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M80" s="85" t="str">
+      <c r="M80" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L80)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N80" s="81"/>
       <c r="P80" s="106" t="e">
@@ -7498,9 +7496,9 @@
         <f>_xll.qlDatedOISRateHelper(K81,B81,B82,J81,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M81" s="85" t="str">
+      <c r="M81" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L81)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N81" s="81"/>
       <c r="P81" s="106" t="e">
@@ -7551,9 +7549,9 @@
         <f>_xll.qlDatedOISRateHelper(K82,B82,B83,J82,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M82" s="85" t="str">
+      <c r="M82" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L82)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N82" s="81"/>
       <c r="P82" s="106" t="e">
@@ -7604,9 +7602,9 @@
         <f>_xll.qlDatedOISRateHelper(K83,B83,B84,J83,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M83" s="85" t="str">
+      <c r="M83" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L83)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N83" s="81"/>
       <c r="P83" s="106" t="e">
@@ -7657,9 +7655,9 @@
         <f>_xll.qlDatedOISRateHelper(K84,B84,B85,J84,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M84" s="85" t="str">
+      <c r="M84" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L84)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N84" s="81"/>
       <c r="P84" s="106" t="e">
@@ -7710,9 +7708,9 @@
         <f>_xll.qlDatedOISRateHelper(K85,B85,B86,J85,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M85" s="85" t="str">
+      <c r="M85" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L85)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N85" s="81"/>
       <c r="P85" s="106" t="e">
@@ -8370,12 +8368,12 @@
         <v>HKD_YCONRH_Swaps.xml</v>
       </c>
       <c r="L3" s="84" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L95),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="85" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L95),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="81"/>
     </row>
@@ -11158,9 +11156,9 @@
         <f>_xll.qlDatedOISRateHelper(K61,B61,B62,J61,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M61" s="85" t="str">
+      <c r="M61" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L61)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N61" s="81"/>
       <c r="P61" s="106" t="e">
@@ -11211,9 +11209,9 @@
         <f>_xll.qlDatedOISRateHelper(K62,B62,B63,J62,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M62" s="85" t="str">
+      <c r="M62" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L62)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N62" s="81"/>
       <c r="P62" s="106" t="e">
@@ -11264,9 +11262,9 @@
         <f>_xll.qlDatedOISRateHelper(K63,B63,B64,J63,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M63" s="85" t="str">
+      <c r="M63" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L63)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N63" s="81"/>
       <c r="P63" s="106" t="e">
@@ -11317,9 +11315,9 @@
         <f>_xll.qlDatedOISRateHelper(K64,B64,B65,J64,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M64" s="85" t="str">
+      <c r="M64" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L64)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N64" s="81"/>
       <c r="P64" s="106" t="e">
@@ -11370,9 +11368,9 @@
         <f>_xll.qlDatedOISRateHelper(K65,B65,B66,J65,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M65" s="85" t="str">
+      <c r="M65" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L65)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N65" s="81"/>
       <c r="P65" s="106" t="e">
@@ -11423,9 +11421,9 @@
         <f>_xll.qlDatedOISRateHelper(K66,B66,B67,J66,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M66" s="85" t="str">
+      <c r="M66" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L66)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N66" s="81"/>
       <c r="P66" s="106" t="e">
@@ -11476,9 +11474,9 @@
         <f>_xll.qlDatedOISRateHelper(K67,B67,B68,J67,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M67" s="85" t="str">
+      <c r="M67" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L67)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N67" s="81"/>
       <c r="P67" s="106" t="e">
@@ -11529,9 +11527,9 @@
         <f>_xll.qlDatedOISRateHelper(K68,B68,B69,J68,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M68" s="85" t="str">
+      <c r="M68" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L68)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N68" s="81"/>
       <c r="P68" s="106" t="e">
@@ -11582,9 +11580,9 @@
         <f>_xll.qlDatedOISRateHelper(K69,B69,B70,J69,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M69" s="85" t="str">
+      <c r="M69" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L69)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N69" s="81"/>
       <c r="P69" s="106" t="e">
@@ -11635,9 +11633,9 @@
         <f>_xll.qlDatedOISRateHelper(K70,B70,B71,J70,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M70" s="85" t="str">
+      <c r="M70" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L70)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N70" s="81"/>
       <c r="P70" s="106" t="e">
@@ -11688,9 +11686,9 @@
         <f>_xll.qlDatedOISRateHelper(K71,B71,B72,J71,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M71" s="85" t="str">
+      <c r="M71" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L71)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N71" s="81"/>
       <c r="P71" s="106" t="e">
@@ -11741,9 +11739,9 @@
         <f>_xll.qlDatedOISRateHelper(K72,B72,B73,J72,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M72" s="85" t="str">
+      <c r="M72" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L72)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N72" s="81"/>
       <c r="P72" s="106" t="e">
@@ -11794,9 +11792,9 @@
         <f>_xll.qlDatedOISRateHelper(K73,B73,B74,J73,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M73" s="85" t="str">
+      <c r="M73" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L73)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N73" s="81"/>
       <c r="P73" s="106" t="e">
@@ -11847,9 +11845,9 @@
         <f>_xll.qlDatedOISRateHelper(K74,B74,B75,J74,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M74" s="85" t="str">
+      <c r="M74" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L74)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N74" s="81"/>
       <c r="P74" s="106" t="e">
@@ -11900,9 +11898,9 @@
         <f>_xll.qlDatedOISRateHelper(K75,B75,B76,J75,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M75" s="85" t="str">
+      <c r="M75" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L75)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N75" s="81"/>
       <c r="P75" s="106" t="e">
@@ -11953,9 +11951,9 @@
         <f>_xll.qlDatedOISRateHelper(K76,B76,B77,J76,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M76" s="85" t="str">
+      <c r="M76" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L76)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N76" s="81"/>
       <c r="P76" s="106" t="e">
@@ -12006,9 +12004,9 @@
         <f>_xll.qlDatedOISRateHelper(K77,B77,B78,J77,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M77" s="85" t="str">
+      <c r="M77" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L77)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N77" s="81"/>
       <c r="P77" s="106" t="e">
@@ -12059,9 +12057,9 @@
         <f>_xll.qlDatedOISRateHelper(K78,B78,B79,J78,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M78" s="85" t="str">
+      <c r="M78" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L78)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N78" s="81"/>
       <c r="P78" s="106" t="e">
@@ -12112,9 +12110,9 @@
         <f>_xll.qlDatedOISRateHelper(K79,B79,B80,J79,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M79" s="85" t="str">
+      <c r="M79" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L79)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N79" s="81"/>
       <c r="P79" s="106" t="e">
@@ -12165,9 +12163,9 @@
         <f>_xll.qlDatedOISRateHelper(K80,B80,B81,J80,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M80" s="85" t="str">
+      <c r="M80" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L80)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N80" s="81"/>
       <c r="P80" s="106" t="e">
@@ -12218,9 +12216,9 @@
         <f>_xll.qlDatedOISRateHelper(K81,B81,B82,J81,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M81" s="85" t="str">
+      <c r="M81" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L81)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N81" s="81"/>
       <c r="P81" s="106" t="e">
@@ -12271,9 +12269,9 @@
         <f>_xll.qlDatedOISRateHelper(K82,B82,B83,J82,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M82" s="85" t="str">
+      <c r="M82" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L82)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N82" s="81"/>
       <c r="P82" s="106" t="e">
@@ -12324,9 +12322,9 @@
         <f>_xll.qlDatedOISRateHelper(K83,B83,B84,J83,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M83" s="85" t="str">
+      <c r="M83" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L83)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N83" s="81"/>
       <c r="P83" s="106" t="e">
@@ -12377,9 +12375,9 @@
         <f>_xll.qlDatedOISRateHelper(K84,B84,B85,J84,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M84" s="85" t="str">
+      <c r="M84" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L84)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N84" s="81"/>
       <c r="P84" s="106" t="e">
@@ -12430,9 +12428,9 @@
         <f>_xll.qlDatedOISRateHelper(K85,B85,B86,J85,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M85" s="85" t="str">
+      <c r="M85" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L85)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N85" s="81"/>
       <c r="P85" s="106" t="e">
@@ -12483,9 +12481,9 @@
         <f>_xll.qlDatedOISRateHelper(K86,B86,B87,J86,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M86" s="85" t="str">
+      <c r="M86" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L86)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N86" s="81"/>
       <c r="P86" s="106" t="e">
@@ -12536,9 +12534,9 @@
         <f>_xll.qlDatedOISRateHelper(K87,B87,B88,J87,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M87" s="85" t="str">
+      <c r="M87" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L87)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N87" s="81"/>
       <c r="P87" s="106" t="e">
@@ -12589,9 +12587,9 @@
         <f>_xll.qlDatedOISRateHelper(K88,B88,B89,J88,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M88" s="85" t="str">
+      <c r="M88" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L88)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N88" s="81"/>
       <c r="P88" s="106" t="e">
@@ -12642,9 +12640,9 @@
         <f>_xll.qlDatedOISRateHelper(K89,B89,B90,J89,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M89" s="85" t="str">
+      <c r="M89" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L89)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N89" s="81"/>
       <c r="P89" s="106" t="e">
@@ -12695,9 +12693,9 @@
         <f>_xll.qlDatedOISRateHelper(K90,B90,B91,J90,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M90" s="85" t="str">
+      <c r="M90" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L90)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N90" s="81"/>
       <c r="P90" s="106" t="e">
@@ -12748,9 +12746,9 @@
         <f>_xll.qlDatedOISRateHelper(K91,B91,B92,J91,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M91" s="85" t="str">
+      <c r="M91" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L91)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N91" s="81"/>
       <c r="P91" s="106" t="e">
@@ -12801,9 +12799,9 @@
         <f>_xll.qlDatedOISRateHelper(K92,B92,B93,J92,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M92" s="85" t="str">
+      <c r="M92" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L92)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N92" s="81"/>
       <c r="P92" s="106" t="e">
@@ -12854,9 +12852,9 @@
         <f>_xll.qlDatedOISRateHelper(K93,B93,B94,J93,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M93" s="85" t="str">
+      <c r="M93" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L93)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N93" s="81"/>
       <c r="P93" s="106" t="e">
@@ -12907,9 +12905,9 @@
         <f>_xll.qlDatedOISRateHelper(K94,B94,B95,J94,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M94" s="85" t="str">
+      <c r="M94" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L94)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N94" s="81"/>
       <c r="P94" s="106" t="e">
@@ -12960,9 +12958,9 @@
         <f>_xll.qlDatedOISRateHelper(K95,B95,#REF!,J95,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M95" s="85" t="str">
+      <c r="M95" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L95)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N95" s="81"/>
       <c r="P95" s="106" t="e">
@@ -13112,12 +13110,12 @@
         <v>HKD_YC1MRH_Swaps.xml</v>
       </c>
       <c r="L3" s="45" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="58"/>
       <c r="S3" s="108" t="s">
@@ -13848,12 +13846,12 @@
         <v>HKD_YC3MRH_Swaps.xml</v>
       </c>
       <c r="L3" s="45" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L50,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="47" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L50,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="47" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="58"/>
       <c r="S3" s="108" t="s">
@@ -16128,12 +16126,12 @@
         <v>HKD_YC6MRH_Swaps.xml</v>
       </c>
       <c r="L3" s="45" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="47" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="47" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="20"/>
       <c r="S3" s="108" t="s">

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_Swaps.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/HKD_YCRH_Swaps.xlsx
@@ -1441,7 +1441,7 @@
     <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Nov  6 2013 01:01:46</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1487,7 +1487,7 @@
         <v>60</v>
       </c>
       <c r="D6" s="37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="28"/>
     </row>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="D8" s="38" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="28"/>
     </row>
@@ -1771,13 +1771,13 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>HKD_YCSTDRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M3" s="47" t="e">
+      <c r="L3" s="45">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,,Serialize),"---")</f>
+        <v>38</v>
+      </c>
+      <c r="M3" s="47" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N3" s="20"/>
       <c r="S3" s="108" t="s">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="L4" s="66" t="str">
         <f>_xll.qlIborIndex(K4,FamilyName,J2,S4,Currency,T4,U4,V4,W4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H_Hibor3M#0001</v>
+        <v>HKD_YCSTDRH_QM3H_Hibor3M#0006</v>
       </c>
       <c r="M4" s="41" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="L6" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H1Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H1Y#0003</v>
       </c>
       <c r="M6" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="L7" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H15M#0000</v>
+        <v>HKD_YCSTDRH_QM3H15M#0003</v>
       </c>
       <c r="M7" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="L8" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H18M#0000</v>
+        <v>HKD_YCSTDRH_QM3H18M#0003</v>
       </c>
       <c r="M8" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="L9" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H21M#0000</v>
+        <v>HKD_YCSTDRH_QM3H21M#0003</v>
       </c>
       <c r="M9" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="L10" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H2Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H2Y#0003</v>
       </c>
       <c r="M10" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="L11" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H3Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H3Y#0003</v>
       </c>
       <c r="M11" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="L12" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H4Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H4Y#0003</v>
       </c>
       <c r="M12" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="L13" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H5Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H5Y#0003</v>
       </c>
       <c r="M13" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="L14" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H6Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H6Y#0003</v>
       </c>
       <c r="M14" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -2342,7 +2342,7 @@
       </c>
       <c r="L15" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H7Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H7Y#0003</v>
       </c>
       <c r="M15" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="L16" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H8Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H8Y#0003</v>
       </c>
       <c r="M16" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="L17" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H9Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H9Y#0003</v>
       </c>
       <c r="M17" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="L18" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H10Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H10Y#0003</v>
       </c>
       <c r="M18" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="L19" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H11Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H11Y#0003</v>
       </c>
       <c r="M19" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="L20" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H12Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H12Y#0003</v>
       </c>
       <c r="M20" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="L21" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H13Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H13Y#0003</v>
       </c>
       <c r="M21" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="L22" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H14Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H14Y#0003</v>
       </c>
       <c r="M22" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="L23" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H15Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H15Y#0003</v>
       </c>
       <c r="M23" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="L24" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H16Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H16Y#0003</v>
       </c>
       <c r="M24" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="L25" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H17Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H17Y#0003</v>
       </c>
       <c r="M25" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="L26" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H18Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H18Y#0003</v>
       </c>
       <c r="M26" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -2882,7 +2882,7 @@
       </c>
       <c r="L27" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H19Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H19Y#0003</v>
       </c>
       <c r="M27" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="L28" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H20Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H20Y#0003</v>
       </c>
       <c r="M28" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="L29" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H21Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H21Y#0003</v>
       </c>
       <c r="M29" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="L30" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H22Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H22Y#0003</v>
       </c>
       <c r="M30" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="L31" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H23Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H23Y#0003</v>
       </c>
       <c r="M31" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="L32" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H24Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H24Y#0003</v>
       </c>
       <c r="M32" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="L33" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H25Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H25Y#0003</v>
       </c>
       <c r="M33" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="L34" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H26Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H26Y#0003</v>
       </c>
       <c r="M34" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="L35" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H27Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H27Y#0003</v>
       </c>
       <c r="M35" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -3287,7 +3287,7 @@
       </c>
       <c r="L36" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H28Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H28Y#0003</v>
       </c>
       <c r="M36" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="L37" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H29Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H29Y#0003</v>
       </c>
       <c r="M37" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="L38" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H30Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H30Y#0003</v>
       </c>
       <c r="M38" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="L39" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H35Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H35Y#0003</v>
       </c>
       <c r="M39" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="L40" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H40Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H40Y#0003</v>
       </c>
       <c r="M40" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="L41" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H50Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H50Y#0003</v>
       </c>
       <c r="M41" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="L42" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCSTDRH_QM3H60Y#0000</v>
+        <v>HKD_YCSTDRH_QM3H60Y#0003</v>
       </c>
       <c r="M42" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -3700,13 +3700,13 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>HKD_YCRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="84" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L95),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M3" s="85" t="e">
+      <c r="L3" s="84">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L95),SerializationPath&amp;K3,FileOverwrite,,Serialize),"---")</f>
+        <v>55</v>
+      </c>
+      <c r="M3" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N3" s="81"/>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="L4" s="88" t="str">
         <f>_xll.qlEonia(K4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS_Hibor#0001</v>
+        <v>HKD_YCRH_OIS_Hibor#0006</v>
       </c>
       <c r="M4" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="L6" s="95" t="str">
         <f>_xll.qlOISRateHelper(K6,2,C6,J6,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OISSW#0001</v>
+        <v>HKD_YCRH_OISSW#0006</v>
       </c>
       <c r="M6" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -3795,11 +3795,11 @@
       <c r="N6" s="81"/>
       <c r="P6" s="106">
         <f>_xll.qlRateHelperEarliestDate($L6)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q6" s="106">
         <f>_xll.qlRateHelperLatestDate($L6)</f>
-        <v>41591</v>
+        <v>41596</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -3837,7 +3837,7 @@
       </c>
       <c r="L7" s="95" t="str">
         <f>_xll.qlOISRateHelper(K7,2,C7,J7,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS2W#0001</v>
+        <v>HKD_YCRH_OIS2W#0006</v>
       </c>
       <c r="M7" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -3846,11 +3846,11 @@
       <c r="N7" s="81"/>
       <c r="P7" s="106">
         <f>_xll.qlRateHelperEarliestDate($L7)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q7" s="106">
         <f>_xll.qlRateHelperLatestDate($L7)</f>
-        <v>41598</v>
+        <v>41603</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -3888,7 +3888,7 @@
       </c>
       <c r="L8" s="95" t="str">
         <f>_xll.qlOISRateHelper(K8,2,C8,J8,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS3W#0001</v>
+        <v>HKD_YCRH_OIS3W#0004</v>
       </c>
       <c r="M8" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -3897,11 +3897,11 @@
       <c r="N8" s="81"/>
       <c r="P8" s="106">
         <f>_xll.qlRateHelperEarliestDate($L8)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q8" s="106">
         <f>_xll.qlRateHelperLatestDate($L8)</f>
-        <v>41605</v>
+        <v>41610</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -3939,7 +3939,7 @@
       </c>
       <c r="L9" s="95" t="str">
         <f>_xll.qlOISRateHelper(K9,2,C9,J9,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS1M#0001</v>
+        <v>HKD_YCRH_OIS1M#0004</v>
       </c>
       <c r="M9" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -3948,11 +3948,11 @@
       <c r="N9" s="81"/>
       <c r="P9" s="106">
         <f>_xll.qlRateHelperEarliestDate($L9)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q9" s="106">
         <f>_xll.qlRateHelperLatestDate($L9)</f>
-        <v>41614</v>
+        <v>41619</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="L10" s="95" t="str">
         <f>_xll.qlOISRateHelper(K10,2,C10,J10,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS2M#0001</v>
+        <v>HKD_YCRH_OIS2M#0006</v>
       </c>
       <c r="M10" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -3999,11 +3999,11 @@
       <c r="N10" s="81"/>
       <c r="P10" s="106">
         <f>_xll.qlRateHelperEarliestDate($L10)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q10" s="106">
         <f>_xll.qlRateHelperLatestDate($L10)</f>
-        <v>41645</v>
+        <v>41652</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="L11" s="95" t="str">
         <f>_xll.qlOISRateHelper(K11,2,C11,J11,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS3M#0001</v>
+        <v>HKD_YCRH_OIS3M#0006</v>
       </c>
       <c r="M11" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -4050,11 +4050,11 @@
       <c r="N11" s="81"/>
       <c r="P11" s="106">
         <f>_xll.qlRateHelperEarliestDate($L11)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q11" s="106">
         <f>_xll.qlRateHelperLatestDate($L11)</f>
-        <v>41676</v>
+        <v>41681</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="L12" s="95" t="str">
         <f>_xll.qlOISRateHelper(K12,2,C12,J12,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS4M#0001</v>
+        <v>HKD_YCRH_OIS4M#0006</v>
       </c>
       <c r="M12" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -4101,11 +4101,11 @@
       <c r="N12" s="81"/>
       <c r="P12" s="106">
         <f>_xll.qlRateHelperEarliestDate($L12)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q12" s="106">
         <f>_xll.qlRateHelperLatestDate($L12)</f>
-        <v>41704</v>
+        <v>41709</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -4143,7 +4143,7 @@
       </c>
       <c r="L13" s="95" t="str">
         <f>_xll.qlOISRateHelper(K13,2,C13,J13,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS5M#0001</v>
+        <v>HKD_YCRH_OIS5M#0006</v>
       </c>
       <c r="M13" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -4152,11 +4152,11 @@
       <c r="N13" s="81"/>
       <c r="P13" s="106">
         <f>_xll.qlRateHelperEarliestDate($L13)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q13" s="106">
         <f>_xll.qlRateHelperLatestDate($L13)</f>
-        <v>41736</v>
+        <v>41740</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -4194,7 +4194,7 @@
       </c>
       <c r="L14" s="95" t="str">
         <f>_xll.qlOISRateHelper(K14,2,C14,J14,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS6M#0000</v>
+        <v>HKD_YCRH_OIS6M#0003</v>
       </c>
       <c r="M14" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -4203,11 +4203,11 @@
       <c r="N14" s="81"/>
       <c r="P14" s="106">
         <f>_xll.qlRateHelperEarliestDate($L14)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q14" s="106">
         <f>_xll.qlRateHelperLatestDate($L14)</f>
-        <v>41765</v>
+        <v>41771</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -4245,7 +4245,7 @@
       </c>
       <c r="L15" s="95" t="str">
         <f>_xll.qlOISRateHelper(K15,2,C15,J15,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS7M#0001</v>
+        <v>HKD_YCRH_OIS7M#0005</v>
       </c>
       <c r="M15" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -4254,11 +4254,11 @@
       <c r="N15" s="81"/>
       <c r="P15" s="106">
         <f>_xll.qlRateHelperEarliestDate($L15)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q15" s="106">
         <f>_xll.qlRateHelperLatestDate($L15)</f>
-        <v>41796</v>
+        <v>41801</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -4296,7 +4296,7 @@
       </c>
       <c r="L16" s="95" t="str">
         <f>_xll.qlOISRateHelper(K16,2,C16,J16,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS8M#0000</v>
+        <v>HKD_YCRH_OIS8M#0003</v>
       </c>
       <c r="M16" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -4305,11 +4305,11 @@
       <c r="N16" s="81"/>
       <c r="P16" s="106">
         <f>_xll.qlRateHelperEarliestDate($L16)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q16" s="106">
         <f>_xll.qlRateHelperLatestDate($L16)</f>
-        <v>41827</v>
+        <v>41831</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="L17" s="95" t="str">
         <f>_xll.qlOISRateHelper(K17,2,C17,J17,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS9M#0001</v>
+        <v>HKD_YCRH_OIS9M#0003</v>
       </c>
       <c r="M17" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -4356,11 +4356,11 @@
       <c r="N17" s="81"/>
       <c r="P17" s="106">
         <f>_xll.qlRateHelperEarliestDate($L17)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q17" s="106">
         <f>_xll.qlRateHelperLatestDate($L17)</f>
-        <v>41857</v>
+        <v>41862</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="L18" s="95" t="str">
         <f>_xll.qlOISRateHelper(K18,2,C18,J18,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS10M#0000</v>
+        <v>HKD_YCRH_OIS10M#0004</v>
       </c>
       <c r="M18" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -4407,11 +4407,11 @@
       <c r="N18" s="81"/>
       <c r="P18" s="106">
         <f>_xll.qlRateHelperEarliestDate($L18)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q18" s="106">
         <f>_xll.qlRateHelperLatestDate($L18)</f>
-        <v>41890</v>
+        <v>41893</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="L19" s="95" t="str">
         <f>_xll.qlOISRateHelper(K19,2,C19,J19,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS11M#0000</v>
+        <v>HKD_YCRH_OIS11M#0003</v>
       </c>
       <c r="M19" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -4458,11 +4458,11 @@
       <c r="N19" s="81"/>
       <c r="P19" s="106">
         <f>_xll.qlRateHelperEarliestDate($L19)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q19" s="106">
         <f>_xll.qlRateHelperLatestDate($L19)</f>
-        <v>41918</v>
+        <v>41925</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -4500,7 +4500,7 @@
       </c>
       <c r="L20" s="95" t="str">
         <f>_xll.qlOISRateHelper(K20,2,C20,J20,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS1Y#0000</v>
+        <v>HKD_YCRH_OIS1Y#0003</v>
       </c>
       <c r="M20" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -4509,11 +4509,11 @@
       <c r="N20" s="81"/>
       <c r="P20" s="106">
         <f>_xll.qlRateHelperEarliestDate($L20)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q20" s="106">
         <f>_xll.qlRateHelperLatestDate($L20)</f>
-        <v>41949</v>
+        <v>41954</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="L21" s="95" t="str">
         <f>_xll.qlOISRateHelper(K21,2,C21,J21,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS13M#0001</v>
+        <v>HKD_YCRH_OIS13M#0003</v>
       </c>
       <c r="M21" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -4560,11 +4560,11 @@
       <c r="N21" s="81"/>
       <c r="P21" s="106">
         <f>_xll.qlRateHelperEarliestDate($L21)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q21" s="106">
         <f>_xll.qlRateHelperLatestDate($L21)</f>
-        <v>41981</v>
+        <v>41984</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -4602,7 +4602,7 @@
       </c>
       <c r="L22" s="95" t="str">
         <f>_xll.qlOISRateHelper(K22,2,C22,J22,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS14M#0000</v>
+        <v>HKD_YCRH_OIS14M#0003</v>
       </c>
       <c r="M22" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -4611,11 +4611,11 @@
       <c r="N22" s="81"/>
       <c r="P22" s="106">
         <f>_xll.qlRateHelperEarliestDate($L22)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q22" s="106">
         <f>_xll.qlRateHelperLatestDate($L22)</f>
-        <v>42010</v>
+        <v>42016</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -4653,7 +4653,7 @@
       </c>
       <c r="L23" s="95" t="str">
         <f>_xll.qlOISRateHelper(K23,2,C23,J23,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS15M#0001</v>
+        <v>HKD_YCRH_OIS15M#0004</v>
       </c>
       <c r="M23" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -4662,11 +4662,11 @@
       <c r="N23" s="81"/>
       <c r="P23" s="106">
         <f>_xll.qlRateHelperEarliestDate($L23)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q23" s="106">
         <f>_xll.qlRateHelperLatestDate($L23)</f>
-        <v>42041</v>
+        <v>42046</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="L24" s="95" t="str">
         <f>_xll.qlOISRateHelper(K24,2,C24,J24,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS16M#0000</v>
+        <v>HKD_YCRH_OIS16M#0003</v>
       </c>
       <c r="M24" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -4713,11 +4713,11 @@
       <c r="N24" s="81"/>
       <c r="P24" s="106">
         <f>_xll.qlRateHelperEarliestDate($L24)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q24" s="106">
         <f>_xll.qlRateHelperLatestDate($L24)</f>
-        <v>42069</v>
+        <v>42074</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="L25" s="95" t="str">
         <f>_xll.qlOISRateHelper(K25,2,C25,J25,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS17M#0000</v>
+        <v>HKD_YCRH_OIS17M#0004</v>
       </c>
       <c r="M25" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -4764,11 +4764,11 @@
       <c r="N25" s="81"/>
       <c r="P25" s="106">
         <f>_xll.qlRateHelperEarliestDate($L25)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q25" s="106">
         <f>_xll.qlRateHelperLatestDate($L25)</f>
-        <v>42101</v>
+        <v>42107</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="L26" s="95" t="str">
         <f>_xll.qlOISRateHelper(K26,2,C26,J26,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS18M#0001</v>
+        <v>HKD_YCRH_OIS18M#0004</v>
       </c>
       <c r="M26" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -4815,11 +4815,11 @@
       <c r="N26" s="81"/>
       <c r="P26" s="106">
         <f>_xll.qlRateHelperEarliestDate($L26)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q26" s="106">
         <f>_xll.qlRateHelperLatestDate($L26)</f>
-        <v>42130</v>
+        <v>42135</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="L27" s="95" t="str">
         <f>_xll.qlOISRateHelper(K27,2,C27,J27,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS19M#0001</v>
+        <v>HKD_YCRH_OIS19M#0006</v>
       </c>
       <c r="M27" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -4866,11 +4866,11 @@
       <c r="N27" s="81"/>
       <c r="P27" s="106">
         <f>_xll.qlRateHelperEarliestDate($L27)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q27" s="106">
         <f>_xll.qlRateHelperLatestDate($L27)</f>
-        <v>42163</v>
+        <v>42166</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -4908,7 +4908,7 @@
       </c>
       <c r="L28" s="95" t="str">
         <f>_xll.qlOISRateHelper(K28,2,C28,J28,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS20M#0001</v>
+        <v>HKD_YCRH_OIS20M#0006</v>
       </c>
       <c r="M28" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -4917,11 +4917,11 @@
       <c r="N28" s="81"/>
       <c r="P28" s="106">
         <f>_xll.qlRateHelperEarliestDate($L28)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q28" s="106">
         <f>_xll.qlRateHelperLatestDate($L28)</f>
-        <v>42191</v>
+        <v>42198</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="L29" s="95" t="str">
         <f>_xll.qlOISRateHelper(K29,2,C29,J29,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS21M#0001</v>
+        <v>HKD_YCRH_OIS21M#0006</v>
       </c>
       <c r="M29" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -4968,11 +4968,11 @@
       <c r="N29" s="81"/>
       <c r="P29" s="106">
         <f>_xll.qlRateHelperEarliestDate($L29)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q29" s="106">
         <f>_xll.qlRateHelperLatestDate($L29)</f>
-        <v>42222</v>
+        <v>42227</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="L30" s="95" t="str">
         <f>_xll.qlOISRateHelper(K30,2,C30,J30,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS22M#0001</v>
+        <v>HKD_YCRH_OIS22M#0006</v>
       </c>
       <c r="M30" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -5019,11 +5019,11 @@
       <c r="N30" s="81"/>
       <c r="P30" s="106">
         <f>_xll.qlRateHelperEarliestDate($L30)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q30" s="106">
         <f>_xll.qlRateHelperLatestDate($L30)</f>
-        <v>42254</v>
+        <v>42258</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="L31" s="95" t="str">
         <f>_xll.qlOISRateHelper(K31,2,C31,J31,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS23M#0001</v>
+        <v>HKD_YCRH_OIS23M#0006</v>
       </c>
       <c r="M31" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -5070,11 +5070,11 @@
       <c r="N31" s="81"/>
       <c r="P31" s="106">
         <f>_xll.qlRateHelperEarliestDate($L31)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q31" s="106">
         <f>_xll.qlRateHelperLatestDate($L31)</f>
-        <v>42283</v>
+        <v>42289</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -5112,7 +5112,7 @@
       </c>
       <c r="L32" s="95" t="str">
         <f>_xll.qlOISRateHelper(K32,2,C32,J32,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS2Y#0001</v>
+        <v>HKD_YCRH_OIS2Y#0003</v>
       </c>
       <c r="M32" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -5121,11 +5121,11 @@
       <c r="N32" s="81"/>
       <c r="P32" s="106">
         <f>_xll.qlRateHelperEarliestDate($L32)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q32" s="106">
         <f>_xll.qlRateHelperLatestDate($L32)</f>
-        <v>42314</v>
+        <v>42319</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -5163,7 +5163,7 @@
       </c>
       <c r="L33" s="95" t="str">
         <f>_xll.qlOISRateHelper(K33,2,C33,J33,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS27M#0000</v>
+        <v>HKD_YCRH_OIS27M#0004</v>
       </c>
       <c r="M33" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -5208,7 +5208,7 @@
       </c>
       <c r="L34" s="95" t="str">
         <f>_xll.qlOISRateHelper(K34,2,C34,J34,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS30M#0000</v>
+        <v>HKD_YCRH_OIS30M#0004</v>
       </c>
       <c r="M34" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="L35" s="95" t="str">
         <f>_xll.qlOISRateHelper(K35,2,C35,J35,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS33M#0001</v>
+        <v>HKD_YCRH_OIS33M#0005</v>
       </c>
       <c r="M35" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -5298,7 +5298,7 @@
       </c>
       <c r="L36" s="95" t="str">
         <f>_xll.qlOISRateHelper(K36,2,C36,J36,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS3Y#0001</v>
+        <v>HKD_YCRH_OIS3Y#0003</v>
       </c>
       <c r="M36" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -5343,7 +5343,7 @@
       </c>
       <c r="L37" s="95" t="str">
         <f>_xll.qlOISRateHelper(K37,2,C37,J37,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS39M#0001</v>
+        <v>HKD_YCRH_OIS39M#0006</v>
       </c>
       <c r="M37" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -5388,7 +5388,7 @@
       </c>
       <c r="L38" s="95" t="str">
         <f>_xll.qlOISRateHelper(K38,2,C38,J38,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS42M#0000</v>
+        <v>HKD_YCRH_OIS42M#0004</v>
       </c>
       <c r="M38" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="L39" s="95" t="str">
         <f>_xll.qlOISRateHelper(K39,2,C39,J39,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS45M#0001</v>
+        <v>HKD_YCRH_OIS45M#0005</v>
       </c>
       <c r="M39" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="L40" s="95" t="str">
         <f>_xll.qlOISRateHelper(K40,2,C40,J40,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS4Y#0000</v>
+        <v>HKD_YCRH_OIS4Y#0004</v>
       </c>
       <c r="M40" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -5523,7 +5523,7 @@
       </c>
       <c r="L41" s="95" t="str">
         <f>_xll.qlOISRateHelper(K41,2,C41,J41,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS51M#0000</v>
+        <v>HKD_YCRH_OIS51M#0003</v>
       </c>
       <c r="M41" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -5568,7 +5568,7 @@
       </c>
       <c r="L42" s="95" t="str">
         <f>_xll.qlOISRateHelper(K42,2,C42,J42,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS54M#0000</v>
+        <v>HKD_YCRH_OIS54M#0004</v>
       </c>
       <c r="M42" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="L43" s="95" t="str">
         <f>_xll.qlOISRateHelper(K43,2,C43,J43,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS57M#0000</v>
+        <v>HKD_YCRH_OIS57M#0006</v>
       </c>
       <c r="M43" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L43)</f>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="L44" s="95" t="str">
         <f>_xll.qlOISRateHelper(K44,2,C44,J44,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS5Y#0001</v>
+        <v>HKD_YCRH_OIS5Y#0006</v>
       </c>
       <c r="M44" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="L45" s="95" t="str">
         <f>_xll.qlOISRateHelper(K45,2,C45,J45,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS6Y#0001</v>
+        <v>HKD_YCRH_OIS6Y#0006</v>
       </c>
       <c r="M45" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="L46" s="95" t="str">
         <f>_xll.qlOISRateHelper(K46,2,C46,J46,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS7Y#0001</v>
+        <v>HKD_YCRH_OIS7Y#0003</v>
       </c>
       <c r="M46" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="L47" s="95" t="str">
         <f>_xll.qlOISRateHelper(K47,2,C47,J47,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS8Y#0000</v>
+        <v>HKD_YCRH_OIS8Y#0004</v>
       </c>
       <c r="M47" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -5838,7 +5838,7 @@
       </c>
       <c r="L48" s="95" t="str">
         <f>_xll.qlOISRateHelper(K48,2,C48,J48,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS9Y#0000</v>
+        <v>HKD_YCRH_OIS9Y#0003</v>
       </c>
       <c r="M48" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -5883,7 +5883,7 @@
       </c>
       <c r="L49" s="95" t="str">
         <f>_xll.qlOISRateHelper(K49,2,C49,J49,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS10Y#0001</v>
+        <v>HKD_YCRH_OIS10Y#0003</v>
       </c>
       <c r="M49" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -5928,7 +5928,7 @@
       </c>
       <c r="L50" s="95" t="str">
         <f>_xll.qlOISRateHelper(K50,2,C50,J50,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS12Y#0001</v>
+        <v>HKD_YCRH_OIS12Y#0003</v>
       </c>
       <c r="M50" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="L51" s="95" t="str">
         <f>_xll.qlOISRateHelper(K51,2,C51,J51,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS15Y#0000</v>
+        <v>HKD_YCRH_OIS15Y#0003</v>
       </c>
       <c r="M51" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L51)</f>
@@ -6018,7 +6018,7 @@
       </c>
       <c r="L52" s="95" t="str">
         <f>_xll.qlOISRateHelper(K52,2,C52,J52,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS20Y#0001</v>
+        <v>HKD_YCRH_OIS20Y#0006</v>
       </c>
       <c r="M52" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L52)</f>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="L53" s="95" t="str">
         <f>_xll.qlOISRateHelper(K53,2,C53,J53,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS25Y#0001</v>
+        <v>HKD_YCRH_OIS25Y#0006</v>
       </c>
       <c r="M53" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L53)</f>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="L54" s="95" t="str">
         <f>_xll.qlOISRateHelper(K54,2,C54,J54,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS27Y#0001</v>
+        <v>HKD_YCRH_OIS27Y#0006</v>
       </c>
       <c r="M54" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L54)</f>
@@ -6117,11 +6117,11 @@
       <c r="N54" s="81"/>
       <c r="P54" s="106">
         <f>_xll.qlRateHelperEarliestDate($L54)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q54" s="106">
         <f>_xll.qlRateHelperLatestDate($L54)</f>
-        <v>51446</v>
+        <v>51452</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="L55" s="95" t="str">
         <f>_xll.qlOISRateHelper(K55,2,C55,J55,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS30Y#0001</v>
+        <v>HKD_YCRH_OIS30Y#0006</v>
       </c>
       <c r="M55" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L55)</f>
@@ -6168,11 +6168,11 @@
       <c r="N55" s="81"/>
       <c r="P55" s="106">
         <f>_xll.qlRateHelperEarliestDate($L55)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q55" s="106">
         <f>_xll.qlRateHelperLatestDate($L55)</f>
-        <v>52541</v>
+        <v>52546</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
@@ -6210,7 +6210,7 @@
       </c>
       <c r="L56" s="95" t="str">
         <f>_xll.qlOISRateHelper(K56,2,C56,J56,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS35Y#0001</v>
+        <v>HKD_YCRH_OIS35Y#0003</v>
       </c>
       <c r="M56" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L56)</f>
@@ -6219,11 +6219,11 @@
       <c r="N56" s="81"/>
       <c r="P56" s="106">
         <f>_xll.qlRateHelperEarliestDate($L56)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q56" s="106">
         <f>_xll.qlRateHelperLatestDate($L56)</f>
-        <v>54368</v>
+        <v>54373</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="L57" s="95" t="str">
         <f>_xll.qlOISRateHelper(K57,2,C57,J57,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS40Y#0001</v>
+        <v>HKD_YCRH_OIS40Y#0003</v>
       </c>
       <c r="M57" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L57)</f>
@@ -6270,11 +6270,11 @@
       <c r="N57" s="81"/>
       <c r="P57" s="106">
         <f>_xll.qlRateHelperEarliestDate($L57)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q57" s="106">
         <f>_xll.qlRateHelperLatestDate($L57)</f>
-        <v>56194</v>
+        <v>56199</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="L58" s="95" t="str">
         <f>_xll.qlOISRateHelper(K58,2,C58,J58,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS45Y#0000</v>
+        <v>HKD_YCRH_OIS45Y#0004</v>
       </c>
       <c r="M58" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L58)</f>
@@ -6321,11 +6321,11 @@
       <c r="N58" s="81"/>
       <c r="P58" s="106">
         <f>_xll.qlRateHelperEarliestDate($L58)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q58" s="106">
         <f>_xll.qlRateHelperLatestDate($L58)</f>
-        <v>58020</v>
+        <v>58025</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -6363,7 +6363,7 @@
       </c>
       <c r="L59" s="95" t="str">
         <f>_xll.qlOISRateHelper(K59,2,C59,J59,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCRH_OIS50Y#0001</v>
+        <v>HKD_YCRH_OIS50Y#0005</v>
       </c>
       <c r="M59" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L59)</f>
@@ -6372,11 +6372,11 @@
       <c r="N59" s="81"/>
       <c r="P59" s="106">
         <f>_xll.qlRateHelperEarliestDate($L59)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q59" s="106">
         <f>_xll.qlRateHelperLatestDate($L59)</f>
-        <v>59846</v>
+        <v>59852</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -6436,9 +6436,9 @@
         <f>_xll.qlDatedOISRateHelper(K61,B61,B62,J61,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M61" s="85" t="e">
+      <c r="M61" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L61)</f>
-        <v>#NAME?</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISNOV12_Quote'</v>
       </c>
       <c r="N61" s="81"/>
       <c r="P61" s="106" t="e">
@@ -6489,9 +6489,9 @@
         <f>_xll.qlDatedOISRateHelper(K62,B62,B63,J62,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M62" s="85" t="e">
+      <c r="M62" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L62)</f>
-        <v>#NAME?</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISDEC12_Quote'</v>
       </c>
       <c r="N62" s="81"/>
       <c r="P62" s="106" t="e">
@@ -6542,9 +6542,9 @@
         <f>_xll.qlDatedOISRateHelper(K63,B63,B64,J63,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M63" s="85" t="e">
+      <c r="M63" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L63)</f>
-        <v>#NAME?</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISJAN13_Quote'</v>
       </c>
       <c r="N63" s="81"/>
       <c r="P63" s="106" t="e">
@@ -6595,9 +6595,9 @@
         <f>_xll.qlDatedOISRateHelper(K64,B64,B65,J64,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M64" s="85" t="e">
+      <c r="M64" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L64)</f>
-        <v>#NAME?</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISFEB13_Quote'</v>
       </c>
       <c r="N64" s="81"/>
       <c r="P64" s="106" t="e">
@@ -6648,9 +6648,9 @@
         <f>_xll.qlDatedOISRateHelper(K65,B65,B66,J65,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M65" s="85" t="e">
+      <c r="M65" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L65)</f>
-        <v>#NAME?</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISMAR13_Quote'</v>
       </c>
       <c r="N65" s="81"/>
       <c r="P65" s="106" t="e">
@@ -6701,9 +6701,9 @@
         <f>_xll.qlDatedOISRateHelper(K66,B66,B67,J66,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M66" s="85" t="e">
+      <c r="M66" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L66)</f>
-        <v>#NAME?</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISAPR13_Quote'</v>
       </c>
       <c r="N66" s="81"/>
       <c r="P66" s="106" t="e">
@@ -6754,9 +6754,9 @@
         <f>_xll.qlDatedOISRateHelper(K67,B67,B68,J67,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M67" s="85" t="e">
+      <c r="M67" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L67)</f>
-        <v>#NAME?</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISMAY13_Quote'</v>
       </c>
       <c r="N67" s="81"/>
       <c r="P67" s="106" t="e">
@@ -6807,9 +6807,9 @@
         <f>_xll.qlDatedOISRateHelper(K68,B68,B69,J68,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M68" s="85" t="e">
+      <c r="M68" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L68)</f>
-        <v>#NAME?</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISJUN13_Quote'</v>
       </c>
       <c r="N68" s="81"/>
       <c r="P68" s="106" t="e">
@@ -6860,9 +6860,9 @@
         <f>_xll.qlDatedOISRateHelper(K69,B69,B70,J69,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M69" s="85" t="e">
+      <c r="M69" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L69)</f>
-        <v>#NAME?</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISJUL13_Quote'</v>
       </c>
       <c r="N69" s="81"/>
       <c r="P69" s="106" t="e">
@@ -6913,9 +6913,9 @@
         <f>_xll.qlDatedOISRateHelper(K70,B70,B71,J70,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M70" s="85" t="e">
+      <c r="M70" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L70)</f>
-        <v>#NAME?</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISAUG13_Quote'</v>
       </c>
       <c r="N70" s="81"/>
       <c r="P70" s="106" t="e">
@@ -6966,9 +6966,9 @@
         <f>_xll.qlDatedOISRateHelper(K71,B71,B72,J71,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M71" s="85" t="e">
+      <c r="M71" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L71)</f>
-        <v>#NAME?</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISSEP13_Quote'</v>
       </c>
       <c r="N71" s="81"/>
       <c r="P71" s="106" t="e">
@@ -7019,9 +7019,9 @@
         <f>_xll.qlDatedOISRateHelper(K72,B72,B73,J72,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M72" s="85" t="e">
+      <c r="M72" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L72)</f>
-        <v>#NAME?</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISOCT13_Quote'</v>
       </c>
       <c r="N72" s="81"/>
       <c r="P72" s="106" t="e">
@@ -7072,9 +7072,9 @@
         <f>_xll.qlDatedOISRateHelper(K73,B73,B74,J73,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M73" s="85" t="e">
+      <c r="M73" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L73)</f>
-        <v>#NAME?</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISNOV13_Quote'</v>
       </c>
       <c r="N73" s="81"/>
       <c r="P73" s="106" t="e">
@@ -7125,9 +7125,9 @@
         <f>_xll.qlDatedOISRateHelper(K74,B74,B75,J74,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M74" s="85" t="e">
+      <c r="M74" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L74)</f>
-        <v>#NAME?</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'EndDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
       </c>
       <c r="N74" s="81"/>
       <c r="P74" s="106" t="e">
@@ -7178,9 +7178,9 @@
         <f>_xll.qlDatedOISRateHelper(K75,B75,B76,J75,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M75" s="85" t="e">
+      <c r="M75" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L75)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N75" s="81"/>
       <c r="P75" s="106" t="e">
@@ -7231,9 +7231,9 @@
         <f>_xll.qlDatedOISRateHelper(K76,B76,B77,J76,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M76" s="85" t="e">
+      <c r="M76" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L76)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N76" s="81"/>
       <c r="P76" s="106" t="e">
@@ -7284,9 +7284,9 @@
         <f>_xll.qlDatedOISRateHelper(K77,B77,B78,J77,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M77" s="85" t="e">
+      <c r="M77" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L77)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N77" s="81"/>
       <c r="P77" s="106" t="e">
@@ -7337,9 +7337,9 @@
         <f>_xll.qlDatedOISRateHelper(K78,B78,B79,J78,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M78" s="85" t="e">
+      <c r="M78" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L78)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N78" s="81"/>
       <c r="P78" s="106" t="e">
@@ -7390,9 +7390,9 @@
         <f>_xll.qlDatedOISRateHelper(K79,B79,B80,J79,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M79" s="85" t="e">
+      <c r="M79" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L79)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N79" s="81"/>
       <c r="P79" s="106" t="e">
@@ -7443,9 +7443,9 @@
         <f>_xll.qlDatedOISRateHelper(K80,B80,B81,J80,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M80" s="85" t="e">
+      <c r="M80" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L80)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N80" s="81"/>
       <c r="P80" s="106" t="e">
@@ -7496,9 +7496,9 @@
         <f>_xll.qlDatedOISRateHelper(K81,B81,B82,J81,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M81" s="85" t="e">
+      <c r="M81" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L81)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N81" s="81"/>
       <c r="P81" s="106" t="e">
@@ -7549,9 +7549,9 @@
         <f>_xll.qlDatedOISRateHelper(K82,B82,B83,J82,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M82" s="85" t="e">
+      <c r="M82" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L82)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N82" s="81"/>
       <c r="P82" s="106" t="e">
@@ -7602,9 +7602,9 @@
         <f>_xll.qlDatedOISRateHelper(K83,B83,B84,J83,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M83" s="85" t="e">
+      <c r="M83" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L83)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N83" s="81"/>
       <c r="P83" s="106" t="e">
@@ -7655,9 +7655,9 @@
         <f>_xll.qlDatedOISRateHelper(K84,B84,B85,J84,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M84" s="85" t="e">
+      <c r="M84" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L84)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N84" s="81"/>
       <c r="P84" s="106" t="e">
@@ -7708,9 +7708,9 @@
         <f>_xll.qlDatedOISRateHelper(K85,B85,B86,J85,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M85" s="85" t="e">
+      <c r="M85" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L85)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N85" s="81"/>
       <c r="P85" s="106" t="e">
@@ -8367,13 +8367,13 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>HKD_YCONRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="84" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L95),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M3" s="85" t="e">
+      <c r="L3" s="84">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L95),SerializationPath&amp;K3,FileOverwrite,,Serialize),"---")</f>
+        <v>55</v>
+      </c>
+      <c r="M3" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N3" s="81"/>
     </row>
@@ -8394,7 +8394,7 @@
       </c>
       <c r="L4" s="88" t="str">
         <f>_xll.qlEonia(K4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS_HiborON#0001</v>
+        <v>HKD_YCONRH_OIS_HiborON#0006</v>
       </c>
       <c r="M4" s="89" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -8453,7 +8453,7 @@
       </c>
       <c r="L6" s="95" t="str">
         <f>_xll.qlOISRateHelper(K6,2,C6,J6,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OISSW#0000</v>
+        <v>HKD_YCONRH_OISSW#0005</v>
       </c>
       <c r="M6" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -8462,11 +8462,11 @@
       <c r="N6" s="81"/>
       <c r="P6" s="106">
         <f>_xll.qlRateHelperEarliestDate($L6)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q6" s="106">
         <f>_xll.qlRateHelperLatestDate($L6)</f>
-        <v>41591</v>
+        <v>41596</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -8505,7 +8505,7 @@
       </c>
       <c r="L7" s="95" t="str">
         <f>_xll.qlOISRateHelper(K7,2,C7,J7,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS2W#0000</v>
+        <v>HKD_YCONRH_OIS2W#0004</v>
       </c>
       <c r="M7" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -8514,11 +8514,11 @@
       <c r="N7" s="81"/>
       <c r="P7" s="106">
         <f>_xll.qlRateHelperEarliestDate(L7)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q7" s="106">
         <f>_xll.qlRateHelperLatestDate($L7)</f>
-        <v>41598</v>
+        <v>41603</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -8557,7 +8557,7 @@
       </c>
       <c r="L8" s="95" t="str">
         <f>_xll.qlOISRateHelper(K8,2,C8,J8,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS3W#0000</v>
+        <v>HKD_YCONRH_OIS3W#0004</v>
       </c>
       <c r="M8" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -8566,11 +8566,11 @@
       <c r="N8" s="81"/>
       <c r="P8" s="106">
         <f>_xll.qlRateHelperEarliestDate(L8)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q8" s="106">
         <f>_xll.qlRateHelperLatestDate($L8)</f>
-        <v>41605</v>
+        <v>41610</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="L9" s="95" t="str">
         <f>_xll.qlOISRateHelper(K9,2,C9,J9,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS1M#0000</v>
+        <v>HKD_YCONRH_OIS1M#0006</v>
       </c>
       <c r="M9" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -8618,11 +8618,11 @@
       <c r="N9" s="81"/>
       <c r="P9" s="106">
         <f>_xll.qlRateHelperEarliestDate(L9)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q9" s="106">
         <f>_xll.qlRateHelperLatestDate($L9)</f>
-        <v>41614</v>
+        <v>41619</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="L10" s="95" t="str">
         <f>_xll.qlOISRateHelper(K10,2,C10,J10,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS2M#0000</v>
+        <v>HKD_YCONRH_OIS2M#0005</v>
       </c>
       <c r="M10" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -8670,11 +8670,11 @@
       <c r="N10" s="81"/>
       <c r="P10" s="106">
         <f>_xll.qlRateHelperEarliestDate(L10)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q10" s="106">
         <f>_xll.qlRateHelperLatestDate($L10)</f>
-        <v>41645</v>
+        <v>41652</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L11" s="95" t="str">
         <f>_xll.qlOISRateHelper(K11,2,C11,J11,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS3M#0000</v>
+        <v>HKD_YCONRH_OIS3M#0004</v>
       </c>
       <c r="M11" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -8722,11 +8722,11 @@
       <c r="N11" s="81"/>
       <c r="P11" s="106">
         <f>_xll.qlRateHelperEarliestDate(L11)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q11" s="106">
         <f>_xll.qlRateHelperLatestDate($L11)</f>
-        <v>41676</v>
+        <v>41681</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -8765,7 +8765,7 @@
       </c>
       <c r="L12" s="95" t="str">
         <f>_xll.qlOISRateHelper(K12,2,C12,J12,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS4M#0000</v>
+        <v>HKD_YCONRH_OIS4M#0003</v>
       </c>
       <c r="M12" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -8774,11 +8774,11 @@
       <c r="N12" s="81"/>
       <c r="P12" s="106">
         <f>_xll.qlRateHelperEarliestDate(L12)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q12" s="106">
         <f>_xll.qlRateHelperLatestDate($L12)</f>
-        <v>41704</v>
+        <v>41709</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -8817,7 +8817,7 @@
       </c>
       <c r="L13" s="95" t="str">
         <f>_xll.qlOISRateHelper(K13,2,C13,J13,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS5M#0000</v>
+        <v>HKD_YCONRH_OIS5M#0003</v>
       </c>
       <c r="M13" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -8826,11 +8826,11 @@
       <c r="N13" s="81"/>
       <c r="P13" s="106">
         <f>_xll.qlRateHelperEarliestDate(L13)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q13" s="106">
         <f>_xll.qlRateHelperLatestDate($L13)</f>
-        <v>41736</v>
+        <v>41740</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -8869,7 +8869,7 @@
       </c>
       <c r="L14" s="95" t="str">
         <f>_xll.qlOISRateHelper(K14,2,C14,J14,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS6M#0001</v>
+        <v>HKD_YCONRH_OIS6M#0005</v>
       </c>
       <c r="M14" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -8878,11 +8878,11 @@
       <c r="N14" s="81"/>
       <c r="P14" s="106">
         <f>_xll.qlRateHelperEarliestDate(L14)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q14" s="106">
         <f>_xll.qlRateHelperLatestDate($L14)</f>
-        <v>41765</v>
+        <v>41771</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
@@ -8921,7 +8921,7 @@
       </c>
       <c r="L15" s="95" t="str">
         <f>_xll.qlOISRateHelper(K15,2,C15,J15,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS7M#0000</v>
+        <v>HKD_YCONRH_OIS7M#0004</v>
       </c>
       <c r="M15" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -8930,11 +8930,11 @@
       <c r="N15" s="81"/>
       <c r="P15" s="106">
         <f>_xll.qlRateHelperEarliestDate(L15)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q15" s="106">
         <f>_xll.qlRateHelperLatestDate($L15)</f>
-        <v>41796</v>
+        <v>41801</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -8973,7 +8973,7 @@
       </c>
       <c r="L16" s="95" t="str">
         <f>_xll.qlOISRateHelper(K16,2,C16,J16,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS8M#0000</v>
+        <v>HKD_YCONRH_OIS8M#0005</v>
       </c>
       <c r="M16" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -8982,11 +8982,11 @@
       <c r="N16" s="81"/>
       <c r="P16" s="106">
         <f>_xll.qlRateHelperEarliestDate(L16)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q16" s="106">
         <f>_xll.qlRateHelperLatestDate($L16)</f>
-        <v>41827</v>
+        <v>41831</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -9025,7 +9025,7 @@
       </c>
       <c r="L17" s="95" t="str">
         <f>_xll.qlOISRateHelper(K17,2,C17,J17,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS9M#0001</v>
+        <v>HKD_YCONRH_OIS9M#0003</v>
       </c>
       <c r="M17" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -9034,11 +9034,11 @@
       <c r="N17" s="81"/>
       <c r="P17" s="106">
         <f>_xll.qlRateHelperEarliestDate(L17)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q17" s="106">
         <f>_xll.qlRateHelperLatestDate($L17)</f>
-        <v>41857</v>
+        <v>41862</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
@@ -9077,7 +9077,7 @@
       </c>
       <c r="L18" s="95" t="str">
         <f>_xll.qlOISRateHelper(K18,2,C18,J18,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS10M#0000</v>
+        <v>HKD_YCONRH_OIS10M#0004</v>
       </c>
       <c r="M18" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -9086,11 +9086,11 @@
       <c r="N18" s="81"/>
       <c r="P18" s="106">
         <f>_xll.qlRateHelperEarliestDate(L18)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q18" s="106">
         <f>_xll.qlRateHelperLatestDate($L18)</f>
-        <v>41890</v>
+        <v>41893</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
@@ -9129,7 +9129,7 @@
       </c>
       <c r="L19" s="95" t="str">
         <f>_xll.qlOISRateHelper(K19,2,C19,J19,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS11M#0001</v>
+        <v>HKD_YCONRH_OIS11M#0003</v>
       </c>
       <c r="M19" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -9138,11 +9138,11 @@
       <c r="N19" s="81"/>
       <c r="P19" s="106">
         <f>_xll.qlRateHelperEarliestDate(L19)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q19" s="106">
         <f>_xll.qlRateHelperLatestDate($L19)</f>
-        <v>41918</v>
+        <v>41925</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
@@ -9181,7 +9181,7 @@
       </c>
       <c r="L20" s="95" t="str">
         <f>_xll.qlOISRateHelper(K20,2,C20,J20,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS1Y#0000</v>
+        <v>HKD_YCONRH_OIS1Y#0004</v>
       </c>
       <c r="M20" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -9190,11 +9190,11 @@
       <c r="N20" s="81"/>
       <c r="P20" s="106">
         <f>_xll.qlRateHelperEarliestDate(L20)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q20" s="106">
         <f>_xll.qlRateHelperLatestDate($L20)</f>
-        <v>41949</v>
+        <v>41954</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="L21" s="95" t="str">
         <f>_xll.qlOISRateHelper(K21,2,C21,J21,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS13M#0000</v>
+        <v>HKD_YCONRH_OIS13M#0004</v>
       </c>
       <c r="M21" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -9242,11 +9242,11 @@
       <c r="N21" s="81"/>
       <c r="P21" s="106">
         <f>_xll.qlRateHelperEarliestDate(L21)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q21" s="106">
         <f>_xll.qlRateHelperLatestDate($L21)</f>
-        <v>41981</v>
+        <v>41984</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="L22" s="95" t="str">
         <f>_xll.qlOISRateHelper(K22,2,C22,J22,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS14M#0000</v>
+        <v>HKD_YCONRH_OIS14M#0003</v>
       </c>
       <c r="M22" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -9294,11 +9294,11 @@
       <c r="N22" s="81"/>
       <c r="P22" s="106">
         <f>_xll.qlRateHelperEarliestDate(L22)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q22" s="106">
         <f>_xll.qlRateHelperLatestDate($L22)</f>
-        <v>42010</v>
+        <v>42016</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="L23" s="95" t="str">
         <f>_xll.qlOISRateHelper(K23,2,C23,J23,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS15M#0000</v>
+        <v>HKD_YCONRH_OIS15M#0003</v>
       </c>
       <c r="M23" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -9346,11 +9346,11 @@
       <c r="N23" s="81"/>
       <c r="P23" s="106">
         <f>_xll.qlRateHelperEarliestDate(L23)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q23" s="106">
         <f>_xll.qlRateHelperLatestDate($L23)</f>
-        <v>42041</v>
+        <v>42046</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
@@ -9389,7 +9389,7 @@
       </c>
       <c r="L24" s="95" t="str">
         <f>_xll.qlOISRateHelper(K24,2,C24,J24,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS16M#0000</v>
+        <v>HKD_YCONRH_OIS16M#0003</v>
       </c>
       <c r="M24" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -9398,11 +9398,11 @@
       <c r="N24" s="81"/>
       <c r="P24" s="106">
         <f>_xll.qlRateHelperEarliestDate(L24)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q24" s="106">
         <f>_xll.qlRateHelperLatestDate($L24)</f>
-        <v>42069</v>
+        <v>42074</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="L25" s="95" t="str">
         <f>_xll.qlOISRateHelper(K25,2,C25,J25,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS17M#0000</v>
+        <v>HKD_YCONRH_OIS17M#0006</v>
       </c>
       <c r="M25" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -9450,11 +9450,11 @@
       <c r="N25" s="81"/>
       <c r="P25" s="106">
         <f>_xll.qlRateHelperEarliestDate(L25)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q25" s="106">
         <f>_xll.qlRateHelperLatestDate($L25)</f>
-        <v>42101</v>
+        <v>42107</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
@@ -9493,7 +9493,7 @@
       </c>
       <c r="L26" s="95" t="str">
         <f>_xll.qlOISRateHelper(K26,2,C26,J26,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS18M#0001</v>
+        <v>HKD_YCONRH_OIS18M#0004</v>
       </c>
       <c r="M26" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -9502,11 +9502,11 @@
       <c r="N26" s="81"/>
       <c r="P26" s="106">
         <f>_xll.qlRateHelperEarliestDate(L26)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q26" s="106">
         <f>_xll.qlRateHelperLatestDate($L26)</f>
-        <v>42130</v>
+        <v>42135</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
@@ -9545,7 +9545,7 @@
       </c>
       <c r="L27" s="95" t="str">
         <f>_xll.qlOISRateHelper(K27,2,C27,J27,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS19M#0001</v>
+        <v>HKD_YCONRH_OIS19M#0004</v>
       </c>
       <c r="M27" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -9554,11 +9554,11 @@
       <c r="N27" s="81"/>
       <c r="P27" s="106">
         <f>_xll.qlRateHelperEarliestDate(L27)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q27" s="106">
         <f>_xll.qlRateHelperLatestDate($L27)</f>
-        <v>42163</v>
+        <v>42166</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
@@ -9597,7 +9597,7 @@
       </c>
       <c r="L28" s="95" t="str">
         <f>_xll.qlOISRateHelper(K28,2,C28,J28,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS20M#0000</v>
+        <v>HKD_YCONRH_OIS20M#0004</v>
       </c>
       <c r="M28" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -9606,11 +9606,11 @@
       <c r="N28" s="81"/>
       <c r="P28" s="106">
         <f>_xll.qlRateHelperEarliestDate(L28)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q28" s="106">
         <f>_xll.qlRateHelperLatestDate($L28)</f>
-        <v>42191</v>
+        <v>42198</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
@@ -9649,7 +9649,7 @@
       </c>
       <c r="L29" s="95" t="str">
         <f>_xll.qlOISRateHelper(K29,2,C29,J29,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS21M#0000</v>
+        <v>HKD_YCONRH_OIS21M#0005</v>
       </c>
       <c r="M29" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -9658,11 +9658,11 @@
       <c r="N29" s="81"/>
       <c r="P29" s="106">
         <f>_xll.qlRateHelperEarliestDate(L29)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q29" s="106">
         <f>_xll.qlRateHelperLatestDate($L29)</f>
-        <v>42222</v>
+        <v>42227</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
@@ -9701,7 +9701,7 @@
       </c>
       <c r="L30" s="95" t="str">
         <f>_xll.qlOISRateHelper(K30,2,C30,J30,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS22M#0001</v>
+        <v>HKD_YCONRH_OIS22M#0003</v>
       </c>
       <c r="M30" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -9710,11 +9710,11 @@
       <c r="N30" s="81"/>
       <c r="P30" s="106">
         <f>_xll.qlRateHelperEarliestDate(L30)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q30" s="106">
         <f>_xll.qlRateHelperLatestDate($L30)</f>
-        <v>42254</v>
+        <v>42258</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="L31" s="95" t="str">
         <f>_xll.qlOISRateHelper(K31,2,C31,J31,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS23M#0001</v>
+        <v>HKD_YCONRH_OIS23M#0004</v>
       </c>
       <c r="M31" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -9762,11 +9762,11 @@
       <c r="N31" s="81"/>
       <c r="P31" s="106">
         <f>_xll.qlRateHelperEarliestDate(L31)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q31" s="106">
         <f>_xll.qlRateHelperLatestDate($L31)</f>
-        <v>42283</v>
+        <v>42289</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="L32" s="95" t="str">
         <f>_xll.qlOISRateHelper(K32,2,C32,J32,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS2Y#0000</v>
+        <v>HKD_YCONRH_OIS2Y#0006</v>
       </c>
       <c r="M32" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -9814,11 +9814,11 @@
       <c r="N32" s="81"/>
       <c r="P32" s="106">
         <f>_xll.qlRateHelperEarliestDate(L32)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q32" s="106">
         <f>_xll.qlRateHelperLatestDate($L32)</f>
-        <v>42314</v>
+        <v>42319</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="L33" s="95" t="str">
         <f>_xll.qlOISRateHelper(K33,2,C33,J33,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS27M#0000</v>
+        <v>HKD_YCONRH_OIS27M#0003</v>
       </c>
       <c r="M33" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -9866,11 +9866,11 @@
       <c r="N33" s="81"/>
       <c r="P33" s="106">
         <f>_xll.qlRateHelperEarliestDate(L33)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q33" s="106">
         <f>_xll.qlRateHelperLatestDate($L33)</f>
-        <v>42408</v>
+        <v>42411</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="L34" s="95" t="str">
         <f>_xll.qlOISRateHelper(K34,2,C34,J34,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS30M#0000</v>
+        <v>HKD_YCONRH_OIS30M#0003</v>
       </c>
       <c r="M34" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -9918,11 +9918,11 @@
       <c r="N34" s="81"/>
       <c r="P34" s="106">
         <f>_xll.qlRateHelperEarliestDate(L34)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q34" s="106">
         <f>_xll.qlRateHelperLatestDate($L34)</f>
-        <v>42496</v>
+        <v>42501</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="L35" s="95" t="str">
         <f>_xll.qlOISRateHelper(K35,2,C35,J35,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS33M#0000</v>
+        <v>HKD_YCONRH_OIS33M#0003</v>
       </c>
       <c r="M35" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -9970,11 +9970,11 @@
       <c r="N35" s="81"/>
       <c r="P35" s="106">
         <f>_xll.qlRateHelperEarliestDate(L35)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q35" s="106">
         <f>_xll.qlRateHelperLatestDate($L35)</f>
-        <v>42590</v>
+        <v>42593</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="L36" s="95" t="str">
         <f>_xll.qlOISRateHelper(K36,2,C36,J36,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS3Y#0000</v>
+        <v>HKD_YCONRH_OIS3Y#0004</v>
       </c>
       <c r="M36" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -10022,11 +10022,11 @@
       <c r="N36" s="81"/>
       <c r="P36" s="106">
         <f>_xll.qlRateHelperEarliestDate(L36)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q36" s="106">
         <f>_xll.qlRateHelperLatestDate($L36)</f>
-        <v>42681</v>
+        <v>42685</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="L37" s="95" t="str">
         <f>_xll.qlOISRateHelper(K37,2,C37,J37,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS39M#0000</v>
+        <v>HKD_YCONRH_OIS39M#0004</v>
       </c>
       <c r="M37" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -10074,11 +10074,11 @@
       <c r="N37" s="81"/>
       <c r="P37" s="106">
         <f>_xll.qlRateHelperEarliestDate(L37)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q37" s="106">
         <f>_xll.qlRateHelperLatestDate($L37)</f>
-        <v>42772</v>
+        <v>42779</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
@@ -10117,7 +10117,7 @@
       </c>
       <c r="L38" s="95" t="str">
         <f>_xll.qlOISRateHelper(K38,2,C38,J38,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS42M#0001</v>
+        <v>HKD_YCONRH_OIS42M#0004</v>
       </c>
       <c r="M38" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -10163,7 +10163,7 @@
       </c>
       <c r="L39" s="95" t="str">
         <f>_xll.qlOISRateHelper(K39,2,C39,J39,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS45M#0000</v>
+        <v>HKD_YCONRH_OIS45M#0005</v>
       </c>
       <c r="M39" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -10209,7 +10209,7 @@
       </c>
       <c r="L40" s="95" t="str">
         <f>_xll.qlOISRateHelper(K40,2,C40,J40,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS4Y#0000</v>
+        <v>HKD_YCONRH_OIS4Y#0003</v>
       </c>
       <c r="M40" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -10255,7 +10255,7 @@
       </c>
       <c r="L41" s="95" t="str">
         <f>_xll.qlOISRateHelper(K41,2,C41,J41,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS51M#0000</v>
+        <v>HKD_YCONRH_OIS51M#0003</v>
       </c>
       <c r="M41" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -10301,7 +10301,7 @@
       </c>
       <c r="L42" s="95" t="str">
         <f>_xll.qlOISRateHelper(K42,2,C42,J42,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS54M#0001</v>
+        <v>HKD_YCONRH_OIS54M#0003</v>
       </c>
       <c r="M42" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -10347,7 +10347,7 @@
       </c>
       <c r="L43" s="95" t="str">
         <f>_xll.qlOISRateHelper(K43,2,C43,J43,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS57M#0000</v>
+        <v>HKD_YCONRH_OIS57M#0003</v>
       </c>
       <c r="M43" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L43)</f>
@@ -10393,7 +10393,7 @@
       </c>
       <c r="L44" s="95" t="str">
         <f>_xll.qlOISRateHelper(K44,2,C44,J44,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS5Y#0001</v>
+        <v>HKD_YCONRH_OIS5Y#0004</v>
       </c>
       <c r="M44" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="L45" s="95" t="str">
         <f>_xll.qlOISRateHelper(K45,2,C45,J45,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS6Y#0000</v>
+        <v>HKD_YCONRH_OIS6Y#0005</v>
       </c>
       <c r="M45" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -10485,7 +10485,7 @@
       </c>
       <c r="L46" s="95" t="str">
         <f>_xll.qlOISRateHelper(K46,2,C46,J46,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS7Y#0000</v>
+        <v>HKD_YCONRH_OIS7Y#0004</v>
       </c>
       <c r="M46" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -10531,7 +10531,7 @@
       </c>
       <c r="L47" s="95" t="str">
         <f>_xll.qlOISRateHelper(K47,2,C47,J47,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS8Y#0000</v>
+        <v>HKD_YCONRH_OIS8Y#0005</v>
       </c>
       <c r="M47" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -10577,7 +10577,7 @@
       </c>
       <c r="L48" s="95" t="str">
         <f>_xll.qlOISRateHelper(K48,2,C48,J48,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS9Y#0001</v>
+        <v>HKD_YCONRH_OIS9Y#0006</v>
       </c>
       <c r="M48" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -10623,7 +10623,7 @@
       </c>
       <c r="L49" s="95" t="str">
         <f>_xll.qlOISRateHelper(K49,2,C49,J49,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS10Y#0000</v>
+        <v>HKD_YCONRH_OIS10Y#0004</v>
       </c>
       <c r="M49" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -10669,7 +10669,7 @@
       </c>
       <c r="L50" s="95" t="str">
         <f>_xll.qlOISRateHelper(K50,2,C50,J50,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS12Y#0000</v>
+        <v>HKD_YCONRH_OIS12Y#0003</v>
       </c>
       <c r="M50" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -10715,7 +10715,7 @@
       </c>
       <c r="L51" s="95" t="str">
         <f>_xll.qlOISRateHelper(K51,2,C51,J51,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS15Y#0000</v>
+        <v>HKD_YCONRH_OIS15Y#0004</v>
       </c>
       <c r="M51" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L51)</f>
@@ -10761,7 +10761,7 @@
       </c>
       <c r="L52" s="95" t="str">
         <f>_xll.qlOISRateHelper(K52,2,C52,J52,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS20Y#0000</v>
+        <v>HKD_YCONRH_OIS20Y#0005</v>
       </c>
       <c r="M52" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L52)</f>
@@ -10807,7 +10807,7 @@
       </c>
       <c r="L53" s="95" t="str">
         <f>_xll.qlOISRateHelper(K53,2,C53,J53,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS25Y#0000</v>
+        <v>HKD_YCONRH_OIS25Y#0003</v>
       </c>
       <c r="M53" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L53)</f>
@@ -10853,7 +10853,7 @@
       </c>
       <c r="L54" s="95" t="str">
         <f>_xll.qlOISRateHelper(K54,2,C54,J54,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS27Y#0001</v>
+        <v>HKD_YCONRH_OIS27Y#0003</v>
       </c>
       <c r="M54" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L54)</f>
@@ -10899,7 +10899,7 @@
       </c>
       <c r="L55" s="95" t="str">
         <f>_xll.qlOISRateHelper(K55,2,C55,J55,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS30Y#0001</v>
+        <v>HKD_YCONRH_OIS30Y#0005</v>
       </c>
       <c r="M55" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L55)</f>
@@ -10945,7 +10945,7 @@
       </c>
       <c r="L56" s="95" t="str">
         <f>_xll.qlOISRateHelper(K56,2,C56,J56,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS35Y#0000</v>
+        <v>HKD_YCONRH_OIS35Y#0004</v>
       </c>
       <c r="M56" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L56)</f>
@@ -10991,7 +10991,7 @@
       </c>
       <c r="L57" s="95" t="str">
         <f>_xll.qlOISRateHelper(K57,2,C57,J57,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS40Y#0000</v>
+        <v>HKD_YCONRH_OIS40Y#0003</v>
       </c>
       <c r="M57" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L57)</f>
@@ -11037,7 +11037,7 @@
       </c>
       <c r="L58" s="95" t="str">
         <f>_xll.qlOISRateHelper(K58,2,C58,J58,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS45Y#0000</v>
+        <v>HKD_YCONRH_OIS45Y#0005</v>
       </c>
       <c r="M58" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L58)</f>
@@ -11083,7 +11083,7 @@
       </c>
       <c r="L59" s="95" t="str">
         <f>_xll.qlOISRateHelper(K59,2,C59,J59,$L$4,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YCONRH_OIS50Y#0000</v>
+        <v>HKD_YCONRH_OIS50Y#0003</v>
       </c>
       <c r="M59" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(L59)</f>
@@ -11092,11 +11092,11 @@
       <c r="N59" s="81"/>
       <c r="P59" s="106">
         <f>_xll.qlRateHelperEarliestDate(L59)</f>
-        <v>41584</v>
+        <v>41589</v>
       </c>
       <c r="Q59" s="106">
         <f>_xll.qlRateHelperLatestDate($L59)</f>
-        <v>59846</v>
+        <v>59852</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -11156,9 +11156,9 @@
         <f>_xll.qlDatedOISRateHelper(K61,B61,B62,J61,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M61" s="85" t="e">
+      <c r="M61" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L61)</f>
-        <v>#NAME?</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISNOV12_Quote'</v>
       </c>
       <c r="N61" s="81"/>
       <c r="P61" s="106" t="e">
@@ -11209,9 +11209,9 @@
         <f>_xll.qlDatedOISRateHelper(K62,B62,B63,J62,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M62" s="85" t="e">
+      <c r="M62" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L62)</f>
-        <v>#NAME?</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISDEC12_Quote'</v>
       </c>
       <c r="N62" s="81"/>
       <c r="P62" s="106" t="e">
@@ -11262,9 +11262,9 @@
         <f>_xll.qlDatedOISRateHelper(K63,B63,B64,J63,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M63" s="85" t="e">
+      <c r="M63" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L63)</f>
-        <v>#NAME?</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISJAN13_Quote'</v>
       </c>
       <c r="N63" s="81"/>
       <c r="P63" s="106" t="e">
@@ -11315,9 +11315,9 @@
         <f>_xll.qlDatedOISRateHelper(K64,B64,B65,J64,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M64" s="85" t="e">
+      <c r="M64" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L64)</f>
-        <v>#NAME?</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISFEB13_Quote'</v>
       </c>
       <c r="N64" s="81"/>
       <c r="P64" s="106" t="e">
@@ -11368,9 +11368,9 @@
         <f>_xll.qlDatedOISRateHelper(K65,B65,B66,J65,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M65" s="85" t="e">
+      <c r="M65" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L65)</f>
-        <v>#NAME?</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISMAR13_Quote'</v>
       </c>
       <c r="N65" s="81"/>
       <c r="P65" s="106" t="e">
@@ -11421,9 +11421,9 @@
         <f>_xll.qlDatedOISRateHelper(K66,B66,B67,J66,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M66" s="85" t="e">
+      <c r="M66" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L66)</f>
-        <v>#NAME?</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISAPR13_Quote'</v>
       </c>
       <c r="N66" s="81"/>
       <c r="P66" s="106" t="e">
@@ -11474,9 +11474,9 @@
         <f>_xll.qlDatedOISRateHelper(K67,B67,B68,J67,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M67" s="85" t="e">
+      <c r="M67" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L67)</f>
-        <v>#NAME?</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISMAY13_Quote'</v>
       </c>
       <c r="N67" s="81"/>
       <c r="P67" s="106" t="e">
@@ -11527,9 +11527,9 @@
         <f>_xll.qlDatedOISRateHelper(K68,B68,B69,J68,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M68" s="85" t="e">
+      <c r="M68" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L68)</f>
-        <v>#NAME?</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISJUN13_Quote'</v>
       </c>
       <c r="N68" s="81"/>
       <c r="P68" s="106" t="e">
@@ -11580,9 +11580,9 @@
         <f>_xll.qlDatedOISRateHelper(K69,B69,B70,J69,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M69" s="85" t="e">
+      <c r="M69" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L69)</f>
-        <v>#NAME?</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISJUL13_Quote'</v>
       </c>
       <c r="N69" s="81"/>
       <c r="P69" s="106" t="e">
@@ -11633,9 +11633,9 @@
         <f>_xll.qlDatedOISRateHelper(K70,B70,B71,J70,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M70" s="85" t="e">
+      <c r="M70" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L70)</f>
-        <v>#NAME?</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISAUG13_Quote'</v>
       </c>
       <c r="N70" s="81"/>
       <c r="P70" s="106" t="e">
@@ -11686,9 +11686,9 @@
         <f>_xll.qlDatedOISRateHelper(K71,B71,B72,J71,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M71" s="85" t="e">
+      <c r="M71" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L71)</f>
-        <v>#NAME?</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISSEP13_Quote'</v>
       </c>
       <c r="N71" s="81"/>
       <c r="P71" s="106" t="e">
@@ -11739,9 +11739,9 @@
         <f>_xll.qlDatedOISRateHelper(K72,B72,B73,J72,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M72" s="85" t="e">
+      <c r="M72" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L72)</f>
-        <v>#NAME?</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISOCT13_Quote'</v>
       </c>
       <c r="N72" s="81"/>
       <c r="P72" s="106" t="e">
@@ -11792,9 +11792,9 @@
         <f>_xll.qlDatedOISRateHelper(K73,B73,B74,J73,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M73" s="85" t="e">
+      <c r="M73" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L73)</f>
-        <v>#NAME?</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'FixedRate' : 'ObjectHandler error: attempt to retrieve object with unknown ID 'HKDECBOISNOV13_Quote'</v>
       </c>
       <c r="N73" s="81"/>
       <c r="P73" s="106" t="e">
@@ -11845,9 +11845,9 @@
         <f>_xll.qlDatedOISRateHelper(K74,B74,B75,J74,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M74" s="85" t="e">
+      <c r="M74" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L74)</f>
-        <v>#NAME?</v>
+        <v>qlDatedOISRateHelper - Error converting parameter 'EndDate' : 'unable to convert type 'struct ObjectHandler::empty_property_tag' to type 'QuantLib::Date'</v>
       </c>
       <c r="N74" s="81"/>
       <c r="P74" s="106" t="e">
@@ -11898,9 +11898,9 @@
         <f>_xll.qlDatedOISRateHelper(K75,B75,B76,J75,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M75" s="85" t="e">
+      <c r="M75" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L75)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N75" s="81"/>
       <c r="P75" s="106" t="e">
@@ -11951,9 +11951,9 @@
         <f>_xll.qlDatedOISRateHelper(K76,B76,B77,J76,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M76" s="85" t="e">
+      <c r="M76" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L76)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N76" s="81"/>
       <c r="P76" s="106" t="e">
@@ -12004,9 +12004,9 @@
         <f>_xll.qlDatedOISRateHelper(K77,B77,B78,J77,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M77" s="85" t="e">
+      <c r="M77" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L77)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N77" s="81"/>
       <c r="P77" s="106" t="e">
@@ -12057,9 +12057,9 @@
         <f>_xll.qlDatedOISRateHelper(K78,B78,B79,J78,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M78" s="85" t="e">
+      <c r="M78" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L78)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N78" s="81"/>
       <c r="P78" s="106" t="e">
@@ -12110,9 +12110,9 @@
         <f>_xll.qlDatedOISRateHelper(K79,B79,B80,J79,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M79" s="85" t="e">
+      <c r="M79" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L79)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N79" s="81"/>
       <c r="P79" s="106" t="e">
@@ -12163,9 +12163,9 @@
         <f>_xll.qlDatedOISRateHelper(K80,B80,B81,J80,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M80" s="85" t="e">
+      <c r="M80" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L80)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N80" s="81"/>
       <c r="P80" s="106" t="e">
@@ -12216,9 +12216,9 @@
         <f>_xll.qlDatedOISRateHelper(K81,B81,B82,J81,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M81" s="85" t="e">
+      <c r="M81" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L81)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N81" s="81"/>
       <c r="P81" s="106" t="e">
@@ -12269,9 +12269,9 @@
         <f>_xll.qlDatedOISRateHelper(K82,B82,B83,J82,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M82" s="85" t="e">
+      <c r="M82" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L82)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N82" s="81"/>
       <c r="P82" s="106" t="e">
@@ -12322,9 +12322,9 @@
         <f>_xll.qlDatedOISRateHelper(K83,B83,B84,J83,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M83" s="85" t="e">
+      <c r="M83" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L83)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N83" s="81"/>
       <c r="P83" s="106" t="e">
@@ -12375,9 +12375,9 @@
         <f>_xll.qlDatedOISRateHelper(K84,B84,B85,J84,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M84" s="85" t="e">
+      <c r="M84" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L84)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N84" s="81"/>
       <c r="P84" s="106" t="e">
@@ -12428,9 +12428,9 @@
         <f>_xll.qlDatedOISRateHelper(K85,B85,B86,J85,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M85" s="85" t="e">
+      <c r="M85" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L85)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N85" s="81"/>
       <c r="P85" s="106" t="e">
@@ -12481,9 +12481,9 @@
         <f>_xll.qlDatedOISRateHelper(K86,B86,B87,J86,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M86" s="85" t="e">
+      <c r="M86" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L86)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N86" s="81"/>
       <c r="P86" s="106" t="e">
@@ -12534,9 +12534,9 @@
         <f>_xll.qlDatedOISRateHelper(K87,B87,B88,J87,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M87" s="85" t="e">
+      <c r="M87" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L87)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N87" s="81"/>
       <c r="P87" s="106" t="e">
@@ -12587,9 +12587,9 @@
         <f>_xll.qlDatedOISRateHelper(K88,B88,B89,J88,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M88" s="85" t="e">
+      <c r="M88" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L88)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N88" s="81"/>
       <c r="P88" s="106" t="e">
@@ -12640,9 +12640,9 @@
         <f>_xll.qlDatedOISRateHelper(K89,B89,B90,J89,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M89" s="85" t="e">
+      <c r="M89" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L89)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N89" s="81"/>
       <c r="P89" s="106" t="e">
@@ -12693,9 +12693,9 @@
         <f>_xll.qlDatedOISRateHelper(K90,B90,B91,J90,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M90" s="85" t="e">
+      <c r="M90" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L90)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N90" s="81"/>
       <c r="P90" s="106" t="e">
@@ -12746,9 +12746,9 @@
         <f>_xll.qlDatedOISRateHelper(K91,B91,B92,J91,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M91" s="85" t="e">
+      <c r="M91" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L91)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N91" s="81"/>
       <c r="P91" s="106" t="e">
@@ -12799,9 +12799,9 @@
         <f>_xll.qlDatedOISRateHelper(K92,B92,B93,J92,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M92" s="85" t="e">
+      <c r="M92" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L92)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N92" s="81"/>
       <c r="P92" s="106" t="e">
@@ -12852,9 +12852,9 @@
         <f>_xll.qlDatedOISRateHelper(K93,B93,B94,J93,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M93" s="85" t="e">
+      <c r="M93" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L93)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N93" s="81"/>
       <c r="P93" s="106" t="e">
@@ -12905,9 +12905,9 @@
         <f>_xll.qlDatedOISRateHelper(K94,B94,B95,J94,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M94" s="85" t="e">
+      <c r="M94" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L94)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N94" s="81"/>
       <c r="P94" s="106" t="e">
@@ -12958,9 +12958,9 @@
         <f>_xll.qlDatedOISRateHelper(K95,B95,#REF!,J95,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M95" s="85" t="e">
+      <c r="M95" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L95)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N95" s="81"/>
       <c r="P95" s="106" t="e">
@@ -13109,13 +13109,13 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>HKD_YC1MRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M3" s="43" t="e">
+      <c r="L3" s="45">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,,Serialize),"---")</f>
+        <v>12</v>
+      </c>
+      <c r="M3" s="43" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N3" s="58"/>
       <c r="S3" s="108" t="s">
@@ -13151,7 +13151,7 @@
       </c>
       <c r="L4" s="66" t="str">
         <f>_xll.qlIborIndex(K4,FamilyName,J2,S4,Currency,T4,U4,V4,W4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_xAM1H_Hibor1M#0001</v>
+        <v>HKD_YC1MRH_xAM1H_Hibor1M#0006</v>
       </c>
       <c r="M4" s="41" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -13227,7 +13227,7 @@
       </c>
       <c r="L6" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H2M#0000</v>
+        <v>HKD_YC1MRH_AM1H2M#0004</v>
       </c>
       <c r="M6" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -13272,7 +13272,7 @@
       </c>
       <c r="L7" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H3M#0000</v>
+        <v>HKD_YC1MRH_AM1H3M#0003</v>
       </c>
       <c r="M7" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="L8" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H4M#0001</v>
+        <v>HKD_YC1MRH_AM1H4M#0004</v>
       </c>
       <c r="M8" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -13362,7 +13362,7 @@
       </c>
       <c r="L9" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H5M#0000</v>
+        <v>HKD_YC1MRH_AM1H5M#0006</v>
       </c>
       <c r="M9" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -13407,7 +13407,7 @@
       </c>
       <c r="L10" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H6M#0001</v>
+        <v>HKD_YC1MRH_AM1H6M#0006</v>
       </c>
       <c r="M10" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -13452,7 +13452,7 @@
       </c>
       <c r="L11" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H7M#0000</v>
+        <v>HKD_YC1MRH_AM1H7M#0003</v>
       </c>
       <c r="M11" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -13497,7 +13497,7 @@
       </c>
       <c r="L12" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H8M#0001</v>
+        <v>HKD_YC1MRH_AM1H8M#0006</v>
       </c>
       <c r="M12" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -13542,7 +13542,7 @@
       </c>
       <c r="L13" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H9M#0001</v>
+        <v>HKD_YC1MRH_AM1H9M#0003</v>
       </c>
       <c r="M13" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -13587,7 +13587,7 @@
       </c>
       <c r="L14" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H10M#0001</v>
+        <v>HKD_YC1MRH_AM1H10M#0003</v>
       </c>
       <c r="M14" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -13632,7 +13632,7 @@
       </c>
       <c r="L15" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H11M#0000</v>
+        <v>HKD_YC1MRH_AM1H11M#0006</v>
       </c>
       <c r="M15" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -13677,7 +13677,7 @@
       </c>
       <c r="L16" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC1MRH_AM1H1Y#0001</v>
+        <v>HKD_YC1MRH_AM1H1Y#0004</v>
       </c>
       <c r="M16" s="43" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -13845,13 +13845,13 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>HKD_YC3MRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L50,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M3" s="47" t="e">
+      <c r="L3" s="45">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L50,SerializationPath&amp;K3,FileOverwrite,,Serialize),"---")</f>
+        <v>45</v>
+      </c>
+      <c r="M3" s="47" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N3" s="58"/>
       <c r="S3" s="108" t="s">
@@ -13887,7 +13887,7 @@
       </c>
       <c r="L4" s="66" t="str">
         <f>_xll.qlIborIndex(K4,FamilyName,J2,S4,Currency,T4,U4,V4,W4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H_Hibor3M#0001</v>
+        <v>HKD_YC3MRH_QM3H_Hibor3M#0006</v>
       </c>
       <c r="M4" s="41" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -13965,7 +13965,7 @@
       </c>
       <c r="L6" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H1Y#0000</v>
+        <v>HKD_YC3MRH_QM3H1Y#0003</v>
       </c>
       <c r="M6" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -14019,7 +14019,7 @@
       </c>
       <c r="L7" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H15M#0000</v>
+        <v>HKD_YC3MRH_QM3H15M#0003</v>
       </c>
       <c r="M7" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -14073,7 +14073,7 @@
       </c>
       <c r="L8" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H18M#0000</v>
+        <v>HKD_YC3MRH_QM3H18M#0003</v>
       </c>
       <c r="M8" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -14127,7 +14127,7 @@
       </c>
       <c r="L9" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H21M#0000</v>
+        <v>HKD_YC3MRH_QM3H21M#0003</v>
       </c>
       <c r="M9" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -14181,7 +14181,7 @@
       </c>
       <c r="L10" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H2Y#0000</v>
+        <v>HKD_YC3MRH_QM3H2Y#0003</v>
       </c>
       <c r="M10" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -14235,7 +14235,7 @@
       </c>
       <c r="L11" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H3Y#0000</v>
+        <v>HKD_YC3MRH_QM3H3Y#0003</v>
       </c>
       <c r="M11" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -14289,7 +14289,7 @@
       </c>
       <c r="L12" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H4Y#0000</v>
+        <v>HKD_YC3MRH_QM3H4Y#0003</v>
       </c>
       <c r="M12" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -14334,7 +14334,7 @@
       </c>
       <c r="L13" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H5Y#0000</v>
+        <v>HKD_YC3MRH_QM3H5Y#0003</v>
       </c>
       <c r="M13" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -14379,7 +14379,7 @@
       </c>
       <c r="L14" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H6Y#0000</v>
+        <v>HKD_YC3MRH_QM3H6Y#0003</v>
       </c>
       <c r="M14" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -14424,7 +14424,7 @@
       </c>
       <c r="L15" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H7Y#0000</v>
+        <v>HKD_YC3MRH_QM3H7Y#0003</v>
       </c>
       <c r="M15" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -14469,7 +14469,7 @@
       </c>
       <c r="L16" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H8Y#0000</v>
+        <v>HKD_YC3MRH_QM3H8Y#0003</v>
       </c>
       <c r="M16" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -14514,7 +14514,7 @@
       </c>
       <c r="L17" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H9Y#0000</v>
+        <v>HKD_YC3MRH_QM3H9Y#0003</v>
       </c>
       <c r="M17" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -14559,7 +14559,7 @@
       </c>
       <c r="L18" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H10Y#0000</v>
+        <v>HKD_YC3MRH_QM3H10Y#0003</v>
       </c>
       <c r="M18" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -14604,7 +14604,7 @@
       </c>
       <c r="L19" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H11Y#0000</v>
+        <v>HKD_YC3MRH_QM3H11Y#0003</v>
       </c>
       <c r="M19" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -14649,7 +14649,7 @@
       </c>
       <c r="L20" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H12Y#0000</v>
+        <v>HKD_YC3MRH_QM3H12Y#0003</v>
       </c>
       <c r="M20" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -14694,7 +14694,7 @@
       </c>
       <c r="L21" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H13Y#0000</v>
+        <v>HKD_YC3MRH_QM3H13Y#0003</v>
       </c>
       <c r="M21" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -14739,7 +14739,7 @@
       </c>
       <c r="L22" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H14Y#0000</v>
+        <v>HKD_YC3MRH_QM3H14Y#0003</v>
       </c>
       <c r="M22" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -14784,7 +14784,7 @@
       </c>
       <c r="L23" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H15Y#0000</v>
+        <v>HKD_YC3MRH_QM3H15Y#0003</v>
       </c>
       <c r="M23" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -14829,7 +14829,7 @@
       </c>
       <c r="L24" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H16Y#0000</v>
+        <v>HKD_YC3MRH_QM3H16Y#0003</v>
       </c>
       <c r="M24" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -14874,7 +14874,7 @@
       </c>
       <c r="L25" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H17Y#0000</v>
+        <v>HKD_YC3MRH_QM3H17Y#0003</v>
       </c>
       <c r="M25" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -14919,7 +14919,7 @@
       </c>
       <c r="L26" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H18Y#0000</v>
+        <v>HKD_YC3MRH_QM3H18Y#0003</v>
       </c>
       <c r="M26" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -14964,7 +14964,7 @@
       </c>
       <c r="L27" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H19Y#0000</v>
+        <v>HKD_YC3MRH_QM3H19Y#0003</v>
       </c>
       <c r="M27" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -15009,7 +15009,7 @@
       </c>
       <c r="L28" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H20Y#0000</v>
+        <v>HKD_YC3MRH_QM3H20Y#0003</v>
       </c>
       <c r="M28" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -15054,7 +15054,7 @@
       </c>
       <c r="L29" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H21Y#0000</v>
+        <v>HKD_YC3MRH_QM3H21Y#0003</v>
       </c>
       <c r="M29" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -15099,7 +15099,7 @@
       </c>
       <c r="L30" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H22Y#0000</v>
+        <v>HKD_YC3MRH_QM3H22Y#0003</v>
       </c>
       <c r="M30" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -15144,7 +15144,7 @@
       </c>
       <c r="L31" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H23Y#0000</v>
+        <v>HKD_YC3MRH_QM3H23Y#0003</v>
       </c>
       <c r="M31" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -15189,7 +15189,7 @@
       </c>
       <c r="L32" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H24Y#0000</v>
+        <v>HKD_YC3MRH_QM3H24Y#0003</v>
       </c>
       <c r="M32" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -15234,7 +15234,7 @@
       </c>
       <c r="L33" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H25Y#0000</v>
+        <v>HKD_YC3MRH_QM3H25Y#0003</v>
       </c>
       <c r="M33" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -15279,7 +15279,7 @@
       </c>
       <c r="L34" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H26Y#0000</v>
+        <v>HKD_YC3MRH_QM3H26Y#0003</v>
       </c>
       <c r="M34" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -15324,7 +15324,7 @@
       </c>
       <c r="L35" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H27Y#0000</v>
+        <v>HKD_YC3MRH_QM3H27Y#0003</v>
       </c>
       <c r="M35" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -15369,7 +15369,7 @@
       </c>
       <c r="L36" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H28Y#0000</v>
+        <v>HKD_YC3MRH_QM3H28Y#0003</v>
       </c>
       <c r="M36" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -15414,7 +15414,7 @@
       </c>
       <c r="L37" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H29Y#0000</v>
+        <v>HKD_YC3MRH_QM3H29Y#0003</v>
       </c>
       <c r="M37" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -15459,7 +15459,7 @@
       </c>
       <c r="L38" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H30Y#0000</v>
+        <v>HKD_YC3MRH_QM3H30Y#0003</v>
       </c>
       <c r="M38" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -15504,7 +15504,7 @@
       </c>
       <c r="L39" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H35Y#0000</v>
+        <v>HKD_YC3MRH_QM3H35Y#0003</v>
       </c>
       <c r="M39" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -15549,7 +15549,7 @@
       </c>
       <c r="L40" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H40Y#0000</v>
+        <v>HKD_YC3MRH_QM3H40Y#0003</v>
       </c>
       <c r="M40" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -15594,7 +15594,7 @@
       </c>
       <c r="L41" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H50Y#0000</v>
+        <v>HKD_YC3MRH_QM3H50Y#0003</v>
       </c>
       <c r="M41" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -15639,7 +15639,7 @@
       </c>
       <c r="L42" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_QM3H60Y#0000</v>
+        <v>HKD_YC3MRH_QM3H60Y#0003</v>
       </c>
       <c r="M42" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
@@ -15697,7 +15697,7 @@
       </c>
       <c r="L44" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K44,$J44,$E44&amp;"M",Calendar,$F44,$G44,$H44,$L$4,$I44,B44,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_1S12#0001</v>
+        <v>HKD_YC3MRH_1S12#0006</v>
       </c>
       <c r="M44" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L44)</f>
@@ -15740,7 +15740,7 @@
       </c>
       <c r="L45" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K45,$J45,$E45&amp;"M",Calendar,$F45,$G45,$H45,$L$4,$I45,B45,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_2S12#0001</v>
+        <v>HKD_YC3MRH_2S12#0006</v>
       </c>
       <c r="M45" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L45)</f>
@@ -15785,7 +15785,7 @@
       </c>
       <c r="L46" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K46,$J46,$E46&amp;"M",Calendar,$F46,$G46,$H46,$L$4,$I46,B46,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_3S12#0000</v>
+        <v>HKD_YC3MRH_3S12#0003</v>
       </c>
       <c r="M46" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L46)</f>
@@ -15830,7 +15830,7 @@
       </c>
       <c r="L47" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K47,$J47,$E47&amp;"M",Calendar,$F47,$G47,$H47,$L$4,$I47,B47,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_4S12#0001</v>
+        <v>HKD_YC3MRH_4S12#0003</v>
       </c>
       <c r="M47" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L47)</f>
@@ -15875,7 +15875,7 @@
       </c>
       <c r="L48" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K48,$J48,$E48&amp;"M",Calendar,$F48,$G48,$H48,$L$4,$I48,B48,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_1S24#0001</v>
+        <v>HKD_YC3MRH_1S24#0006</v>
       </c>
       <c r="M48" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L48)</f>
@@ -15920,7 +15920,7 @@
       </c>
       <c r="L49" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K49,$J49,$E49&amp;"M",Calendar,$F49,$G49,$H49,$L$4,$I49,B49,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_2S24#0001</v>
+        <v>HKD_YC3MRH_2S24#0004</v>
       </c>
       <c r="M49" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L49)</f>
@@ -15965,7 +15965,7 @@
       </c>
       <c r="L50" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K50,$J50,$E50&amp;"M",Calendar,$F50,$G50,$H50,$L$4,$I50,B50,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC3MRH_1S36#0001</v>
+        <v>HKD_YC3MRH_1S36#0003</v>
       </c>
       <c r="M50" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L50)</f>
@@ -16125,13 +16125,13 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>HKD_YC6MRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M3" s="47" t="e">
+      <c r="L3" s="45">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,,Serialize),"---")</f>
+        <v>38</v>
+      </c>
+      <c r="M3" s="47" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="N3" s="20"/>
       <c r="S3" s="108" t="s">
@@ -16167,7 +16167,7 @@
       </c>
       <c r="L4" s="66" t="str">
         <f>_xll.qlIborIndex(K4,FamilyName,J2,S4,Currency,T4,U4,V4,W4,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L_Hibor6M#0001</v>
+        <v>HKD_YC6MRH_SB6L_Hibor6M#0006</v>
       </c>
       <c r="M4" s="41" t="str">
         <f>_xll.ohRangeRetrieveError(L4)</f>
@@ -16246,7 +16246,7 @@
       </c>
       <c r="L6" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K6,$J6,$C6,Calendar,$F6,$G6,$H6,$L$4,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L1Y#0000</v>
+        <v>HKD_YC6MRH_SB6L1Y#0003</v>
       </c>
       <c r="M6" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -16301,7 +16301,7 @@
       </c>
       <c r="L7" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K7,$J7,$C7,Calendar,$F7,$G7,$H7,$L$4,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L15M#0000</v>
+        <v>HKD_YC6MRH_SB6L15M#0003</v>
       </c>
       <c r="M7" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -16356,7 +16356,7 @@
       </c>
       <c r="L8" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K8,$J8,$C8,Calendar,$F8,$G8,$H8,$L$4,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L18M#0000</v>
+        <v>HKD_YC6MRH_SB6L18M#0003</v>
       </c>
       <c r="M8" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -16411,7 +16411,7 @@
       </c>
       <c r="L9" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K9,$J9,$C9,Calendar,$F9,$G9,$H9,$L$4,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L21M#0000</v>
+        <v>HKD_YC6MRH_SB6L21M#0006</v>
       </c>
       <c r="M9" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -16466,7 +16466,7 @@
       </c>
       <c r="L10" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K10,$J10,$C10,Calendar,$F10,$G10,$H10,$L$4,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L2Y#0000</v>
+        <v>HKD_YC6MRH_SB6L2Y#0003</v>
       </c>
       <c r="M10" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -16521,7 +16521,7 @@
       </c>
       <c r="L11" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K11,$J11,$C11,Calendar,$F11,$G11,$H11,$L$4,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L3Y#0000</v>
+        <v>HKD_YC6MRH_SB6L3Y#0003</v>
       </c>
       <c r="M11" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -16567,7 +16567,7 @@
       </c>
       <c r="L12" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K12,$J12,$C12,Calendar,$F12,$G12,$H12,$L$4,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L4Y#0000</v>
+        <v>HKD_YC6MRH_SB6L4Y#0003</v>
       </c>
       <c r="M12" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -16613,7 +16613,7 @@
       </c>
       <c r="L13" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K13,$J13,$C13,Calendar,$F13,$G13,$H13,$L$4,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L5Y#0000</v>
+        <v>HKD_YC6MRH_SB6L5Y#0003</v>
       </c>
       <c r="M13" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -16659,7 +16659,7 @@
       </c>
       <c r="L14" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K14,$J14,$C14,Calendar,$F14,$G14,$H14,$L$4,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L6Y#0000</v>
+        <v>HKD_YC6MRH_SB6L6Y#0003</v>
       </c>
       <c r="M14" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -16705,7 +16705,7 @@
       </c>
       <c r="L15" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K15,$J15,$C15,Calendar,$F15,$G15,$H15,$L$4,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L7Y#0000</v>
+        <v>HKD_YC6MRH_SB6L7Y#0003</v>
       </c>
       <c r="M15" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -16751,7 +16751,7 @@
       </c>
       <c r="L16" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K16,$J16,$C16,Calendar,$F16,$G16,$H16,$L$4,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L8Y#0000</v>
+        <v>HKD_YC6MRH_SB6L8Y#0003</v>
       </c>
       <c r="M16" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -16797,7 +16797,7 @@
       </c>
       <c r="L17" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K17,$J17,$C17,Calendar,$F17,$G17,$H17,$L$4,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L9Y#0000</v>
+        <v>HKD_YC6MRH_SB6L9Y#0003</v>
       </c>
       <c r="M17" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -16843,7 +16843,7 @@
       </c>
       <c r="L18" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K18,$J18,$C18,Calendar,$F18,$G18,$H18,$L$4,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L10Y#0000</v>
+        <v>HKD_YC6MRH_SB6L10Y#0003</v>
       </c>
       <c r="M18" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -16889,7 +16889,7 @@
       </c>
       <c r="L19" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K19,$J19,$C19,Calendar,$F19,$G19,$H19,$L$4,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L11Y#0000</v>
+        <v>HKD_YC6MRH_SB6L11Y#0003</v>
       </c>
       <c r="M19" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -16935,7 +16935,7 @@
       </c>
       <c r="L20" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K20,$J20,$C20,Calendar,$F20,$G20,$H20,$L$4,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L12Y#0000</v>
+        <v>HKD_YC6MRH_SB6L12Y#0003</v>
       </c>
       <c r="M20" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -16981,7 +16981,7 @@
       </c>
       <c r="L21" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K21,$J21,$C21,Calendar,$F21,$G21,$H21,$L$4,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L13Y#0000</v>
+        <v>HKD_YC6MRH_SB6L13Y#0003</v>
       </c>
       <c r="M21" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -17027,7 +17027,7 @@
       </c>
       <c r="L22" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K22,$J22,$C22,Calendar,$F22,$G22,$H22,$L$4,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L14Y#0000</v>
+        <v>HKD_YC6MRH_SB6L14Y#0003</v>
       </c>
       <c r="M22" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -17073,7 +17073,7 @@
       </c>
       <c r="L23" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K23,$J23,$C23,Calendar,$F23,$G23,$H23,$L$4,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L15Y#0000</v>
+        <v>HKD_YC6MRH_SB6L15Y#0003</v>
       </c>
       <c r="M23" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -17119,7 +17119,7 @@
       </c>
       <c r="L24" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K24,$J24,$C24,Calendar,$F24,$G24,$H24,$L$4,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L16Y#0000</v>
+        <v>HKD_YC6MRH_SB6L16Y#0003</v>
       </c>
       <c r="M24" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -17165,7 +17165,7 @@
       </c>
       <c r="L25" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K25,$J25,$C25,Calendar,$F25,$G25,$H25,$L$4,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L17Y#0000</v>
+        <v>HKD_YC6MRH_SB6L17Y#0003</v>
       </c>
       <c r="M25" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -17211,7 +17211,7 @@
       </c>
       <c r="L26" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K26,$J26,$C26,Calendar,$F26,$G26,$H26,$L$4,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L18Y#0000</v>
+        <v>HKD_YC6MRH_SB6L18Y#0003</v>
       </c>
       <c r="M26" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -17257,7 +17257,7 @@
       </c>
       <c r="L27" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K27,$J27,$C27,Calendar,$F27,$G27,$H27,$L$4,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L19Y#0000</v>
+        <v>HKD_YC6MRH_SB6L19Y#0003</v>
       </c>
       <c r="M27" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -17303,7 +17303,7 @@
       </c>
       <c r="L28" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K28,$J28,$C28,Calendar,$F28,$G28,$H28,$L$4,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L20Y#0000</v>
+        <v>HKD_YC6MRH_SB6L20Y#0003</v>
       </c>
       <c r="M28" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -17349,7 +17349,7 @@
       </c>
       <c r="L29" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K29,$J29,$C29,Calendar,$F29,$G29,$H29,$L$4,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L21Y#0000</v>
+        <v>HKD_YC6MRH_SB6L21Y#0003</v>
       </c>
       <c r="M29" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -17395,7 +17395,7 @@
       </c>
       <c r="L30" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K30,$J30,$C30,Calendar,$F30,$G30,$H30,$L$4,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L22Y#0000</v>
+        <v>HKD_YC6MRH_SB6L22Y#0003</v>
       </c>
       <c r="M30" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -17441,7 +17441,7 @@
       </c>
       <c r="L31" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K31,$J31,$C31,Calendar,$F31,$G31,$H31,$L$4,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L23Y#0000</v>
+        <v>HKD_YC6MRH_SB6L23Y#0003</v>
       </c>
       <c r="M31" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -17487,7 +17487,7 @@
       </c>
       <c r="L32" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K32,$J32,$C32,Calendar,$F32,$G32,$H32,$L$4,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L24Y#0000</v>
+        <v>HKD_YC6MRH_SB6L24Y#0003</v>
       </c>
       <c r="M32" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -17533,7 +17533,7 @@
       </c>
       <c r="L33" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K33,$J33,$C33,Calendar,$F33,$G33,$H33,$L$4,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L25Y#0000</v>
+        <v>HKD_YC6MRH_SB6L25Y#0003</v>
       </c>
       <c r="M33" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -17579,7 +17579,7 @@
       </c>
       <c r="L34" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K34,$J34,$C34,Calendar,$F34,$G34,$H34,$L$4,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L26Y#0000</v>
+        <v>HKD_YC6MRH_SB6L26Y#0003</v>
       </c>
       <c r="M34" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -17625,7 +17625,7 @@
       </c>
       <c r="L35" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K35,$J35,$C35,Calendar,$F35,$G35,$H35,$L$4,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L27Y#0000</v>
+        <v>HKD_YC6MRH_SB6L27Y#0003</v>
       </c>
       <c r="M35" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -17671,7 +17671,7 @@
       </c>
       <c r="L36" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K36,$J36,$C36,Calendar,$F36,$G36,$H36,$L$4,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L28Y#0000</v>
+        <v>HKD_YC6MRH_SB6L28Y#0003</v>
       </c>
       <c r="M36" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -17717,7 +17717,7 @@
       </c>
       <c r="L37" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K37,$J37,$C37,Calendar,$F37,$G37,$H37,$L$4,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L29Y#0000</v>
+        <v>HKD_YC6MRH_SB6L29Y#0003</v>
       </c>
       <c r="M37" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -17763,7 +17763,7 @@
       </c>
       <c r="L38" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K38,$J38,$C38,Calendar,$F38,$G38,$H38,$L$4,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L30Y#0000</v>
+        <v>HKD_YC6MRH_SB6L30Y#0003</v>
       </c>
       <c r="M38" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -17809,7 +17809,7 @@
       </c>
       <c r="L39" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K39,$J39,$C39,Calendar,$F39,$G39,$H39,$L$4,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L35Y#0000</v>
+        <v>HKD_YC6MRH_SB6L35Y#0003</v>
       </c>
       <c r="M39" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -17855,7 +17855,7 @@
       </c>
       <c r="L40" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K40,$J40,$C40,Calendar,$F40,$G40,$H40,$L$4,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L40Y#0000</v>
+        <v>HKD_YC6MRH_SB6L40Y#0003</v>
       </c>
       <c r="M40" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -17901,7 +17901,7 @@
       </c>
       <c r="L41" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K41,$J41,$C41,Calendar,$F41,$G41,$H41,$L$4,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L50Y#0000</v>
+        <v>HKD_YC6MRH_SB6L50Y#0003</v>
       </c>
       <c r="M41" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>
@@ -17947,7 +17947,7 @@
       </c>
       <c r="L42" s="24" t="str">
         <f>_xll.qlSwapRateHelper2(K42,$J42,$C42,Calendar,$F42,$G42,$H42,$L$4,$I42,B42,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>HKD_YC6MRH_SB6L60Y#0000</v>
+        <v>HKD_YC6MRH_SB6L60Y#0003</v>
       </c>
       <c r="M42" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(L42)</f>
